--- a/doc/TZ.xlsx
+++ b/doc/TZ.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="ТЗ" sheetId="1" r:id="rId1"/>
     <sheet name="Приложения" sheetId="2" r:id="rId2"/>
+    <sheet name="База данных" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
   <si>
     <t>Главная страница</t>
   </si>
@@ -274,6 +275,12 @@
   </si>
   <si>
     <t>Просмотр и создание рассылки</t>
+  </si>
+  <si>
+    <t>Вид ЛС: диалоги/сообщения</t>
+  </si>
+  <si>
+    <t>Сколько отрывков на странице перевода</t>
   </si>
   <si>
     <t>Форма регистрации пользователя, заполнение основных полей. Отправка подтверждения на e-mail, активация аккаунта</t>
@@ -291,7 +298,7 @@
 Для незалогиненных: окно входа, ссылка на регистрацию, восстановление пароля</t>
   </si>
   <si>
-    <t>Список нарушений. Поля: дата, текст предупреждения, кто вынес предупреждение</t>
+    <t>Сколько переводов на странице списка переводов</t>
   </si>
   <si>
     <t>Форма и модуль восстановления пароля: на e-mail высылается случайно сгенерированный пароль и ссылка активации; после перехода по ссылке пароль активируется</t>
@@ -693,9 +700,6 @@
     <t>Оригинальное название, переведённое название, язык оригинала, язык перевода, описание</t>
   </si>
   <si>
-    <t>ISBN, имя автора в оригинале, переведённое название, дата выхода</t>
-  </si>
-  <si>
     <t>Субтитры:</t>
   </si>
   <si>
@@ -907,6 +911,295 @@
   </si>
   <si>
     <t>Клюев</t>
+  </si>
+  <si>
+    <t>Неактивированные пользователи</t>
+  </si>
+  <si>
+    <t>Жалобы</t>
+  </si>
+  <si>
+    <t>Запросы</t>
+  </si>
+  <si>
+    <t>Ранги</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>primary_language</t>
+  </si>
+  <si>
+    <t>other_language</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>is_banned</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>virtual_points</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Псевдоним</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>0 - обычный, 1 - модератор сайта, 2 - администратор сайта</t>
+  </si>
+  <si>
+    <t>Для авторизации</t>
+  </si>
+  <si>
+    <t>Настройки - формат будет определён позднее</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>news_id</t>
+  </si>
+  <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>news_text</t>
+  </si>
+  <si>
+    <t>deleted_by</t>
+  </si>
+  <si>
+    <t>Автор новости</t>
+  </si>
+  <si>
+    <t>Кто удалил</t>
+  </si>
+  <si>
+    <t>Отрывки</t>
+  </si>
+  <si>
+    <t>Книга</t>
+  </si>
+  <si>
+    <t>ISBN, имя автора, имя автора в оригинале, переведённое название, дата выхода</t>
+  </si>
+  <si>
+    <t>Субтитры</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>text_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>original_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>original_language</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>0 - открытый, 1 - по приглашениям, 2 - закрытый,
+3 - секретный</t>
+  </si>
+  <si>
+    <t>0 - книга, 1 - субтитры, 2 - прочее</t>
+  </si>
+  <si>
+    <t>ИД создателя</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>native_author</t>
+  </si>
+  <si>
+    <t>release_date</t>
+  </si>
+  <si>
+    <t>Ссылка на перевод</t>
+  </si>
+  <si>
+    <t>Автор на языке оригинала</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>subtitles</t>
+  </si>
+  <si>
+    <t>Продолжительность</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>text_roles</t>
+  </si>
+  <si>
+    <t>Роли в проекте</t>
+  </si>
+  <si>
+    <t>0 - переводчик, 1 - модератор, 2 - администратор</t>
+  </si>
+  <si>
+    <t>Главы</t>
+  </si>
+  <si>
+    <t>violation</t>
+  </si>
+  <si>
+    <t>Предупреждения</t>
+  </si>
+  <si>
+    <t>violation_id</t>
+  </si>
+  <si>
+    <t>issued_by</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Кому выдано</t>
+  </si>
+  <si>
+    <t>Кем выдано</t>
+  </si>
+  <si>
+    <t>Причина</t>
+  </si>
+  <si>
+    <t>Подробное описание</t>
+  </si>
+  <si>
+    <t>Список нарушений. Поля: дата, причина, текст предупреждения, кто вынес предупреждение</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>complaint_id</t>
+  </si>
+  <si>
+    <t>object_id</t>
+  </si>
+  <si>
+    <t>0 - личное сообщение, 1 - перевод, 2 - вариант перевода, 3 - комментарий</t>
+  </si>
+  <si>
+    <t>Часть сообщений</t>
+  </si>
+  <si>
+    <t>Рассылки</t>
+  </si>
+  <si>
+    <t>Часть пользователей</t>
+  </si>
+  <si>
+    <t>Часть перевода</t>
+  </si>
+  <si>
+    <t>Запросившие восстановление пароля</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>0 - запрос на публикацию, 1 - на возврат с публикации, 2 - удаление опубликованной книги</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>rank_id</t>
+  </si>
+  <si>
+    <t>min_points</t>
+  </si>
+  <si>
+    <t>Минимальное число баллов</t>
+  </si>
+  <si>
+    <t>Для пользователей</t>
+  </si>
+  <si>
+    <t>Для перевода</t>
+  </si>
+  <si>
+    <t>Для админки</t>
+  </si>
+  <si>
+    <t>Планы</t>
+  </si>
+  <si>
+    <t>Параметры настроек (JSON)</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1091,11 +1384,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1151,7 +1516,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1195,6 +1566,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1696,7 +2080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1717,21 +2103,21 @@
       <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L1" s="5">
         <f>D286</f>
@@ -1784,10 +2170,10 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="35"/>
       <c r="H3" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1844,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="44" t="s">
         <v>79</v>
       </c>
       <c r="G5" s="35"/>
@@ -1875,14 +2261,14 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1907,7 +2293,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="35"/>
       <c r="H7" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I7" s="5">
         <f>SUM(I4:I6)</f>
@@ -1943,7 +2329,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1969,8 +2355,8 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="38" t="s">
-        <v>153</v>
+      <c r="F9" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="5"/>
@@ -2000,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="35"/>
       <c r="H10" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2065,7 +2451,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2091,8 +2477,8 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="38" t="s">
-        <v>152</v>
+      <c r="F13" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="5"/>
@@ -2122,10 +2508,10 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="35"/>
       <c r="H14" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2220,7 +2606,7 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I17" s="5">
         <f>SUM(I15:I16)</f>
@@ -2252,7 +2638,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -2357,7 +2743,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="35"/>
       <c r="H22" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2385,7 +2771,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="35"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5">
@@ -2450,7 +2836,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="35"/>
       <c r="H25" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I25" s="5">
         <f>SUM(I23:I24)</f>
@@ -2481,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="44" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="35"/>
@@ -2512,10 +2898,10 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="35"/>
       <c r="H27" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2546,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2579,7 +2965,7 @@
         <v>10.5</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2605,12 +2991,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="44" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I30" s="5">
         <f>SUM(I28:I29)</f>
@@ -2641,12 +3027,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="35"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -2726,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="44" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2759,14 +3145,14 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="35"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5">
         <v>0.5</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -2828,7 +3214,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2854,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="44" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="35"/>
@@ -2889,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="38"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="35"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5">
@@ -2918,7 +3304,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="39"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="35"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5">
@@ -3081,7 +3467,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="37"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -3164,8 +3550,8 @@
         <v>4</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="38" t="s">
-        <v>158</v>
+      <c r="F49" s="44" t="s">
+        <v>159</v>
       </c>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
@@ -3195,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="38"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
@@ -3220,7 +3606,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="38"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -3245,7 +3631,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="38"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -3270,7 +3656,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="38"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3295,7 +3681,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="38"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -3320,7 +3706,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="40"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -3403,8 +3789,8 @@
         <v>4</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="38" t="s">
-        <v>159</v>
+      <c r="F58" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -3434,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="38"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -3459,7 +3845,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="38"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -3484,7 +3870,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="38"/>
+      <c r="F61" s="44"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
@@ -3509,7 +3895,7 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="40"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
@@ -3558,7 +3944,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3592,8 +3978,8 @@
         <v>2</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="38" t="s">
-        <v>160</v>
+      <c r="F65" s="44" t="s">
+        <v>161</v>
       </c>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
@@ -3623,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="40"/>
+      <c r="F66" s="46"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
@@ -3706,8 +4092,8 @@
         <v>3</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="38" t="s">
-        <v>162</v>
+      <c r="F69" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
@@ -3737,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="11"/>
-      <c r="F70" s="38"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
@@ -3762,7 +4148,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="40"/>
+      <c r="F71" s="46"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
@@ -3845,8 +4231,8 @@
         <v>2</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="42" t="s">
-        <v>163</v>
+      <c r="F74" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
@@ -3872,7 +4258,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="42"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
@@ -3897,7 +4283,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="42"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
@@ -3922,7 +4308,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="42"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
@@ -3947,7 +4333,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="42"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
@@ -3972,7 +4358,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="39"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -4131,7 +4517,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="37"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
@@ -4214,8 +4600,8 @@
         <v>1</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="38" t="s">
-        <v>89</v>
+      <c r="F88" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
@@ -4245,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="38"/>
+      <c r="F89" s="44"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
@@ -4270,7 +4656,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="38"/>
+      <c r="F90" s="44"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
@@ -4295,7 +4681,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="38"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
@@ -4320,7 +4706,7 @@
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="40"/>
+      <c r="F92" s="46"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
@@ -4369,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4403,8 +4789,8 @@
         <v>0.5</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="38" t="s">
-        <v>91</v>
+      <c r="F95" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
@@ -4434,7 +4820,7 @@
         <v>0.5</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="38"/>
+      <c r="F96" s="44"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
       <c r="I96" s="35"/>
@@ -4459,7 +4845,7 @@
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="40"/>
+      <c r="F97" s="46"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
       <c r="I97" s="35"/>
@@ -4542,8 +4928,8 @@
         <v>4</v>
       </c>
       <c r="E100" s="11"/>
-      <c r="F100" s="38" t="s">
-        <v>86</v>
+      <c r="F100" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
@@ -4573,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="12"/>
-      <c r="F101" s="40"/>
+      <c r="F101" s="46"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
@@ -4656,8 +5042,8 @@
         <v>2</v>
       </c>
       <c r="E104" s="11"/>
-      <c r="F104" s="38" t="s">
-        <v>142</v>
+      <c r="F104" s="44" t="s">
+        <v>143</v>
       </c>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -4687,7 +5073,7 @@
         <v>0.5</v>
       </c>
       <c r="E105" s="11"/>
-      <c r="F105" s="38"/>
+      <c r="F105" s="44"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
       <c r="I105" s="35"/>
@@ -4712,7 +5098,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="38"/>
+      <c r="F106" s="44"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
       <c r="I106" s="35"/>
@@ -4737,7 +5123,7 @@
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="38"/>
+      <c r="F107" s="44"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="35"/>
@@ -4762,7 +5148,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="38"/>
+      <c r="F108" s="44"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
@@ -4787,7 +5173,7 @@
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="38"/>
+      <c r="F109" s="44"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
       <c r="I109" s="35"/>
@@ -4812,7 +5198,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="38"/>
+      <c r="F110" s="44"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="35"/>
@@ -4837,7 +5223,7 @@
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="40"/>
+      <c r="F111" s="46"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="35"/>
@@ -4920,8 +5306,8 @@
         <v>1</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="38" t="s">
-        <v>88</v>
+      <c r="F114" s="44" t="s">
+        <v>90</v>
       </c>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
@@ -4951,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="5"/>
-      <c r="F115" s="38"/>
+      <c r="F115" s="44"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="35"/>
@@ -4976,7 +5362,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="38"/>
+      <c r="F116" s="44"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="35"/>
@@ -5001,7 +5387,7 @@
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="40"/>
+      <c r="F117" s="46"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="35"/>
@@ -5084,8 +5470,8 @@
         <v>1</v>
       </c>
       <c r="E120" s="11"/>
-      <c r="F120" s="38" t="s">
-        <v>90</v>
+      <c r="F120" s="44" t="s">
+        <v>254</v>
       </c>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
@@ -5115,7 +5501,7 @@
         <v>0.5</v>
       </c>
       <c r="E121" s="15"/>
-      <c r="F121" s="39"/>
+      <c r="F121" s="45"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
@@ -5274,7 +5660,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="37"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
       <c r="I127" s="35"/>
@@ -5357,8 +5743,8 @@
         <v>5</v>
       </c>
       <c r="E130" s="11"/>
-      <c r="F130" s="38" t="s">
-        <v>132</v>
+      <c r="F130" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="G130" s="35"/>
       <c r="H130" s="35"/>
@@ -5388,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="11"/>
-      <c r="F131" s="38"/>
+      <c r="F131" s="44"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
       <c r="I131" s="35"/>
@@ -5413,7 +5799,7 @@
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
-      <c r="F132" s="38"/>
+      <c r="F132" s="44"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
@@ -5438,7 +5824,7 @@
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
-      <c r="F133" s="38"/>
+      <c r="F133" s="44"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
@@ -5463,7 +5849,7 @@
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="38"/>
+      <c r="F134" s="44"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
@@ -5488,7 +5874,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="38"/>
+      <c r="F135" s="44"/>
       <c r="G135" s="35"/>
       <c r="H135" s="35"/>
       <c r="I135" s="35"/>
@@ -5513,7 +5899,7 @@
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
-      <c r="F136" s="38"/>
+      <c r="F136" s="44"/>
       <c r="G136" s="35"/>
       <c r="H136" s="35"/>
       <c r="I136" s="35"/>
@@ -5538,7 +5924,7 @@
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
-      <c r="F137" s="38"/>
+      <c r="F137" s="44"/>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
       <c r="I137" s="35"/>
@@ -5563,7 +5949,7 @@
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="38"/>
+      <c r="F138" s="44"/>
       <c r="G138" s="35"/>
       <c r="H138" s="35"/>
       <c r="I138" s="35"/>
@@ -5588,7 +5974,7 @@
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="38"/>
+      <c r="F139" s="44"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -5613,7 +5999,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
-      <c r="F140" s="38"/>
+      <c r="F140" s="44"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
       <c r="I140" s="35"/>
@@ -5638,7 +6024,7 @@
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
-      <c r="F141" s="38"/>
+      <c r="F141" s="44"/>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
       <c r="I141" s="35"/>
@@ -5663,7 +6049,7 @@
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
-      <c r="F142" s="38"/>
+      <c r="F142" s="44"/>
       <c r="G142" s="35"/>
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
@@ -5688,7 +6074,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
-      <c r="F143" s="38"/>
+      <c r="F143" s="44"/>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
@@ -5713,7 +6099,7 @@
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
-      <c r="F144" s="38"/>
+      <c r="F144" s="44"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
@@ -5738,7 +6124,7 @@
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="40"/>
+      <c r="F145" s="46"/>
       <c r="G145" s="35"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
@@ -5787,7 +6173,7 @@
         <v>44</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -5821,8 +6207,8 @@
         <v>1</v>
       </c>
       <c r="E148" s="5"/>
-      <c r="F148" s="38" t="s">
-        <v>102</v>
+      <c r="F148" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="G148" s="35"/>
       <c r="H148" s="35"/>
@@ -5852,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="5"/>
-      <c r="F149" s="38"/>
+      <c r="F149" s="44"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
       <c r="I149" s="35"/>
@@ -5877,7 +6263,7 @@
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
-      <c r="F150" s="40"/>
+      <c r="F150" s="46"/>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
@@ -5960,8 +6346,8 @@
         <v>4</v>
       </c>
       <c r="E153" s="11"/>
-      <c r="F153" s="38" t="s">
-        <v>166</v>
+      <c r="F153" s="44" t="s">
+        <v>167</v>
       </c>
       <c r="G153" s="35"/>
       <c r="H153" s="35"/>
@@ -5991,7 +6377,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="11"/>
-      <c r="F154" s="38"/>
+      <c r="F154" s="44"/>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
@@ -6016,7 +6402,7 @@
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
-      <c r="F155" s="38"/>
+      <c r="F155" s="44"/>
       <c r="G155" s="35"/>
       <c r="H155" s="35"/>
       <c r="I155" s="35"/>
@@ -6041,7 +6427,7 @@
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
-      <c r="F156" s="38"/>
+      <c r="F156" s="44"/>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
@@ -6066,7 +6452,7 @@
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="38"/>
+      <c r="F157" s="44"/>
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
@@ -6091,7 +6477,7 @@
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
-      <c r="F158" s="38"/>
+      <c r="F158" s="44"/>
       <c r="G158" s="35"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
@@ -6116,7 +6502,7 @@
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
-      <c r="F159" s="38"/>
+      <c r="F159" s="44"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
@@ -6141,7 +6527,7 @@
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
-      <c r="F160" s="38"/>
+      <c r="F160" s="44"/>
       <c r="G160" s="35"/>
       <c r="H160" s="35"/>
       <c r="I160" s="35"/>
@@ -6166,7 +6552,7 @@
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
-      <c r="F161" s="38"/>
+      <c r="F161" s="44"/>
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
@@ -6191,7 +6577,7 @@
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
-      <c r="F162" s="38"/>
+      <c r="F162" s="44"/>
       <c r="G162" s="35"/>
       <c r="H162" s="35"/>
       <c r="I162" s="35"/>
@@ -6216,7 +6602,7 @@
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
-      <c r="F163" s="38"/>
+      <c r="F163" s="44"/>
       <c r="G163" s="35"/>
       <c r="H163" s="35"/>
       <c r="I163" s="35"/>
@@ -6241,7 +6627,7 @@
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
-      <c r="F164" s="38"/>
+      <c r="F164" s="44"/>
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="I164" s="35"/>
@@ -6266,7 +6652,7 @@
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
-      <c r="F165" s="38"/>
+      <c r="F165" s="44"/>
       <c r="G165" s="35"/>
       <c r="H165" s="35"/>
       <c r="I165" s="35"/>
@@ -6291,7 +6677,7 @@
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="38"/>
+      <c r="F166" s="44"/>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
@@ -6316,7 +6702,7 @@
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
-      <c r="F167" s="38"/>
+      <c r="F167" s="44"/>
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
       <c r="I167" s="35"/>
@@ -6341,7 +6727,7 @@
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
-      <c r="F168" s="38"/>
+      <c r="F168" s="44"/>
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
@@ -6366,7 +6752,7 @@
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
-      <c r="F169" s="38"/>
+      <c r="F169" s="44"/>
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
       <c r="I169" s="35"/>
@@ -6391,7 +6777,7 @@
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
-      <c r="F170" s="38"/>
+      <c r="F170" s="44"/>
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
@@ -6416,7 +6802,7 @@
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="38"/>
+      <c r="F171" s="44"/>
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
       <c r="I171" s="35"/>
@@ -6441,7 +6827,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
-      <c r="F172" s="40"/>
+      <c r="F172" s="46"/>
       <c r="G172" s="35"/>
       <c r="H172" s="35"/>
       <c r="I172" s="35"/>
@@ -6524,8 +6910,8 @@
         <v>1</v>
       </c>
       <c r="E175" s="11"/>
-      <c r="F175" s="38" t="s">
-        <v>167</v>
+      <c r="F175" s="44" t="s">
+        <v>168</v>
       </c>
       <c r="G175" s="35"/>
       <c r="H175" s="35"/>
@@ -6555,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="E176" s="11"/>
-      <c r="F176" s="38"/>
+      <c r="F176" s="44"/>
       <c r="G176" s="35"/>
       <c r="H176" s="35"/>
       <c r="I176" s="35"/>
@@ -6580,7 +6966,7 @@
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
-      <c r="F177" s="40"/>
+      <c r="F177" s="46"/>
       <c r="G177" s="35"/>
       <c r="H177" s="35"/>
       <c r="I177" s="35"/>
@@ -6663,8 +7049,8 @@
         <v>5</v>
       </c>
       <c r="E180" s="11"/>
-      <c r="F180" s="38" t="s">
-        <v>127</v>
+      <c r="F180" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="35"/>
@@ -6694,7 +7080,7 @@
         <v>15</v>
       </c>
       <c r="E181" s="11"/>
-      <c r="F181" s="38"/>
+      <c r="F181" s="44"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
@@ -6719,7 +7105,7 @@
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
-      <c r="F182" s="38"/>
+      <c r="F182" s="44"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
@@ -6744,7 +7130,7 @@
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
-      <c r="F183" s="38"/>
+      <c r="F183" s="44"/>
       <c r="G183" s="35"/>
       <c r="H183" s="35"/>
       <c r="I183" s="35"/>
@@ -6769,7 +7155,7 @@
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
-      <c r="F184" s="38"/>
+      <c r="F184" s="44"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
@@ -6794,7 +7180,7 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="38"/>
+      <c r="F185" s="44"/>
       <c r="G185" s="35"/>
       <c r="H185" s="35"/>
       <c r="I185" s="35"/>
@@ -6819,7 +7205,7 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
-      <c r="F186" s="38"/>
+      <c r="F186" s="44"/>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
       <c r="I186" s="35"/>
@@ -6844,7 +7230,7 @@
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
-      <c r="F187" s="38"/>
+      <c r="F187" s="44"/>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
@@ -6869,7 +7255,7 @@
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
-      <c r="F188" s="38"/>
+      <c r="F188" s="44"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
@@ -6894,7 +7280,7 @@
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
-      <c r="F189" s="38"/>
+      <c r="F189" s="44"/>
       <c r="G189" s="35"/>
       <c r="H189" s="35"/>
       <c r="I189" s="35"/>
@@ -6919,7 +7305,7 @@
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="38"/>
+      <c r="F190" s="44"/>
       <c r="G190" s="35"/>
       <c r="H190" s="35"/>
       <c r="I190" s="35"/>
@@ -6944,7 +7330,7 @@
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
-      <c r="F191" s="38"/>
+      <c r="F191" s="44"/>
       <c r="G191" s="35"/>
       <c r="H191" s="35"/>
       <c r="I191" s="35"/>
@@ -6969,7 +7355,7 @@
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
-      <c r="F192" s="38"/>
+      <c r="F192" s="44"/>
       <c r="G192" s="35"/>
       <c r="H192" s="35"/>
       <c r="I192" s="35"/>
@@ -6994,7 +7380,7 @@
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
-      <c r="F193" s="38"/>
+      <c r="F193" s="44"/>
       <c r="G193" s="35"/>
       <c r="H193" s="35"/>
       <c r="I193" s="35"/>
@@ -7019,7 +7405,7 @@
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
-      <c r="F194" s="38"/>
+      <c r="F194" s="44"/>
       <c r="G194" s="35"/>
       <c r="H194" s="35"/>
       <c r="I194" s="35"/>
@@ -7044,7 +7430,7 @@
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
-      <c r="F195" s="38"/>
+      <c r="F195" s="44"/>
       <c r="G195" s="35"/>
       <c r="H195" s="35"/>
       <c r="I195" s="35"/>
@@ -7069,7 +7455,7 @@
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
-      <c r="F196" s="38"/>
+      <c r="F196" s="44"/>
       <c r="G196" s="35"/>
       <c r="H196" s="35"/>
       <c r="I196" s="35"/>
@@ -7094,7 +7480,7 @@
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
-      <c r="F197" s="38"/>
+      <c r="F197" s="44"/>
       <c r="G197" s="35"/>
       <c r="H197" s="35"/>
       <c r="I197" s="35"/>
@@ -7119,7 +7505,7 @@
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
-      <c r="F198" s="38"/>
+      <c r="F198" s="44"/>
       <c r="G198" s="35"/>
       <c r="H198" s="35"/>
       <c r="I198" s="35"/>
@@ -7144,7 +7530,7 @@
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
-      <c r="F199" s="38"/>
+      <c r="F199" s="44"/>
       <c r="G199" s="35"/>
       <c r="H199" s="35"/>
       <c r="I199" s="35"/>
@@ -7169,7 +7555,7 @@
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
-      <c r="F200" s="38"/>
+      <c r="F200" s="44"/>
       <c r="G200" s="35"/>
       <c r="H200" s="35"/>
       <c r="I200" s="35"/>
@@ -7194,7 +7580,7 @@
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
-      <c r="F201" s="38"/>
+      <c r="F201" s="44"/>
       <c r="G201" s="35"/>
       <c r="H201" s="35"/>
       <c r="I201" s="35"/>
@@ -7219,7 +7605,7 @@
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
-      <c r="F202" s="38"/>
+      <c r="F202" s="44"/>
       <c r="G202" s="35"/>
       <c r="H202" s="35"/>
       <c r="I202" s="35"/>
@@ -7244,7 +7630,7 @@
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
-      <c r="F203" s="38"/>
+      <c r="F203" s="44"/>
       <c r="G203" s="35"/>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
@@ -7269,7 +7655,7 @@
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
-      <c r="F204" s="38"/>
+      <c r="F204" s="44"/>
       <c r="G204" s="35"/>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
@@ -7294,7 +7680,7 @@
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
-      <c r="F205" s="38"/>
+      <c r="F205" s="44"/>
       <c r="G205" s="35"/>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
@@ -7319,7 +7705,7 @@
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
-      <c r="F206" s="38"/>
+      <c r="F206" s="44"/>
       <c r="G206" s="35"/>
       <c r="H206" s="35"/>
       <c r="I206" s="35"/>
@@ -7344,7 +7730,7 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
-      <c r="F207" s="38"/>
+      <c r="F207" s="44"/>
       <c r="G207" s="35"/>
       <c r="H207" s="35"/>
       <c r="I207" s="35"/>
@@ -7369,7 +7755,7 @@
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
-      <c r="F208" s="38"/>
+      <c r="F208" s="44"/>
       <c r="G208" s="35"/>
       <c r="H208" s="35"/>
       <c r="I208" s="35"/>
@@ -7394,7 +7780,7 @@
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
-      <c r="F209" s="38"/>
+      <c r="F209" s="44"/>
       <c r="G209" s="35"/>
       <c r="H209" s="35"/>
       <c r="I209" s="35"/>
@@ -7419,7 +7805,7 @@
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
-      <c r="F210" s="38"/>
+      <c r="F210" s="44"/>
       <c r="G210" s="35"/>
       <c r="H210" s="35"/>
       <c r="I210" s="35"/>
@@ -7444,7 +7830,7 @@
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
-      <c r="F211" s="38"/>
+      <c r="F211" s="44"/>
       <c r="G211" s="35"/>
       <c r="H211" s="35"/>
       <c r="I211" s="35"/>
@@ -7469,7 +7855,7 @@
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
-      <c r="F212" s="38"/>
+      <c r="F212" s="44"/>
       <c r="G212" s="35"/>
       <c r="H212" s="35"/>
       <c r="I212" s="35"/>
@@ -7494,7 +7880,7 @@
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
-      <c r="F213" s="38"/>
+      <c r="F213" s="44"/>
       <c r="G213" s="35"/>
       <c r="H213" s="35"/>
       <c r="I213" s="35"/>
@@ -7519,7 +7905,7 @@
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
-      <c r="F214" s="38"/>
+      <c r="F214" s="44"/>
       <c r="G214" s="35"/>
       <c r="H214" s="35"/>
       <c r="I214" s="35"/>
@@ -7544,7 +7930,7 @@
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
-      <c r="F215" s="40"/>
+      <c r="F215" s="46"/>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
       <c r="I215" s="35"/>
@@ -7627,8 +8013,8 @@
         <v>4</v>
       </c>
       <c r="E218" s="11"/>
-      <c r="F218" s="38" t="s">
-        <v>126</v>
+      <c r="F218" s="44" t="s">
+        <v>128</v>
       </c>
       <c r="G218" s="35"/>
       <c r="H218" s="35"/>
@@ -7654,7 +8040,7 @@
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
-      <c r="F219" s="40"/>
+      <c r="F219" s="46"/>
       <c r="G219" s="35"/>
       <c r="H219" s="35"/>
       <c r="I219" s="35"/>
@@ -7737,8 +8123,8 @@
         <v>3</v>
       </c>
       <c r="E222" s="11"/>
-      <c r="F222" s="38" t="s">
-        <v>164</v>
+      <c r="F222" s="44" t="s">
+        <v>165</v>
       </c>
       <c r="G222" s="35"/>
       <c r="H222" s="35"/>
@@ -7764,7 +8150,7 @@
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
-      <c r="F223" s="38"/>
+      <c r="F223" s="44"/>
       <c r="G223" s="35"/>
       <c r="H223" s="35"/>
       <c r="I223" s="35"/>
@@ -7789,7 +8175,7 @@
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
-      <c r="F224" s="38"/>
+      <c r="F224" s="44"/>
       <c r="G224" s="35"/>
       <c r="H224" s="35"/>
       <c r="I224" s="35"/>
@@ -7814,7 +8200,7 @@
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
-      <c r="F225" s="38"/>
+      <c r="F225" s="44"/>
       <c r="G225" s="35"/>
       <c r="H225" s="35"/>
       <c r="I225" s="35"/>
@@ -7839,7 +8225,7 @@
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
-      <c r="F226" s="40"/>
+      <c r="F226" s="46"/>
       <c r="G226" s="35"/>
       <c r="H226" s="35"/>
       <c r="I226" s="35"/>
@@ -7922,8 +8308,8 @@
         <v>1</v>
       </c>
       <c r="E229" s="11"/>
-      <c r="F229" s="38" t="s">
-        <v>128</v>
+      <c r="F229" s="44" t="s">
+        <v>130</v>
       </c>
       <c r="G229" s="35"/>
       <c r="H229" s="35"/>
@@ -7953,7 +8339,7 @@
         <v>0.5</v>
       </c>
       <c r="E230" s="12"/>
-      <c r="F230" s="40"/>
+      <c r="F230" s="46"/>
       <c r="G230" s="35"/>
       <c r="H230" s="35"/>
       <c r="I230" s="35"/>
@@ -7999,7 +8385,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>55</v>
@@ -8036,8 +8422,8 @@
         <v>1</v>
       </c>
       <c r="E233" s="11"/>
-      <c r="F233" s="38" t="s">
-        <v>171</v>
+      <c r="F233" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="G233" s="35"/>
       <c r="H233" s="35"/>
@@ -8067,7 +8453,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="11"/>
-      <c r="F234" s="38"/>
+      <c r="F234" s="44"/>
       <c r="G234" s="35"/>
       <c r="H234" s="35"/>
       <c r="I234" s="35"/>
@@ -8092,7 +8478,7 @@
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
-      <c r="F235" s="38"/>
+      <c r="F235" s="44"/>
       <c r="G235" s="35"/>
       <c r="H235" s="35"/>
       <c r="I235" s="35"/>
@@ -8117,7 +8503,7 @@
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
-      <c r="F236" s="39"/>
+      <c r="F236" s="45"/>
       <c r="G236" s="35"/>
       <c r="H236" s="35"/>
       <c r="I236" s="35"/>
@@ -8276,7 +8662,7 @@
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
-      <c r="F242" s="37"/>
+      <c r="F242" s="9"/>
       <c r="G242" s="35"/>
       <c r="H242" s="35"/>
       <c r="I242" s="35"/>
@@ -8331,7 +8717,7 @@
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G244" s="35"/>
       <c r="H244" s="35"/>
@@ -8415,8 +8801,8 @@
         <v>2</v>
       </c>
       <c r="E247" s="11"/>
-      <c r="F247" s="38" t="s">
-        <v>139</v>
+      <c r="F247" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="G247" s="35"/>
       <c r="H247" s="35"/>
@@ -8446,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="11"/>
-      <c r="F248" s="38"/>
+      <c r="F248" s="44"/>
       <c r="G248" s="35"/>
       <c r="H248" s="35"/>
       <c r="I248" s="35"/>
@@ -8471,7 +8857,7 @@
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
-      <c r="F249" s="40"/>
+      <c r="F249" s="46"/>
       <c r="G249" s="35"/>
       <c r="H249" s="35"/>
       <c r="I249" s="35"/>
@@ -8520,7 +8906,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -8554,8 +8940,8 @@
         <v>2</v>
       </c>
       <c r="E252" s="11"/>
-      <c r="F252" s="38" t="s">
-        <v>140</v>
+      <c r="F252" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="G252" s="35"/>
       <c r="H252" s="35"/>
@@ -8585,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="11"/>
-      <c r="F253" s="38"/>
+      <c r="F253" s="44"/>
       <c r="G253" s="35"/>
       <c r="H253" s="35"/>
       <c r="I253" s="35"/>
@@ -8610,7 +8996,7 @@
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
-      <c r="F254" s="38"/>
+      <c r="F254" s="44"/>
       <c r="G254" s="35"/>
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
@@ -8635,7 +9021,7 @@
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
-      <c r="F255" s="38"/>
+      <c r="F255" s="44"/>
       <c r="G255" s="35"/>
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
@@ -8660,7 +9046,7 @@
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
-      <c r="F256" s="38"/>
+      <c r="F256" s="44"/>
       <c r="G256" s="35"/>
       <c r="H256" s="35"/>
       <c r="I256" s="35"/>
@@ -8685,7 +9071,7 @@
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
-      <c r="F257" s="38"/>
+      <c r="F257" s="44"/>
       <c r="G257" s="35"/>
       <c r="H257" s="35"/>
       <c r="I257" s="35"/>
@@ -8710,7 +9096,7 @@
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
-      <c r="F258" s="38"/>
+      <c r="F258" s="44"/>
       <c r="G258" s="35"/>
       <c r="H258" s="35"/>
       <c r="I258" s="35"/>
@@ -8735,7 +9121,7 @@
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
-      <c r="F259" s="38"/>
+      <c r="F259" s="44"/>
       <c r="G259" s="35"/>
       <c r="H259" s="35"/>
       <c r="I259" s="35"/>
@@ -8760,7 +9146,7 @@
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
-      <c r="F260" s="38"/>
+      <c r="F260" s="44"/>
       <c r="G260" s="35"/>
       <c r="H260" s="35"/>
       <c r="I260" s="35"/>
@@ -8785,7 +9171,7 @@
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
-      <c r="F261" s="40"/>
+      <c r="F261" s="46"/>
       <c r="G261" s="35"/>
       <c r="H261" s="35"/>
       <c r="I261" s="35"/>
@@ -8868,8 +9254,8 @@
         <v>1</v>
       </c>
       <c r="E264" s="11"/>
-      <c r="F264" s="38" t="s">
-        <v>141</v>
+      <c r="F264" s="44" t="s">
+        <v>142</v>
       </c>
       <c r="G264" s="35"/>
       <c r="H264" s="35"/>
@@ -8899,7 +9285,7 @@
         <v>0.5</v>
       </c>
       <c r="E265" s="12"/>
-      <c r="F265" s="40"/>
+      <c r="F265" s="46"/>
       <c r="G265" s="35"/>
       <c r="H265" s="35"/>
       <c r="I265" s="35"/>
@@ -8982,8 +9368,8 @@
         <v>0.5</v>
       </c>
       <c r="E268" s="11"/>
-      <c r="F268" s="38" t="s">
-        <v>143</v>
+      <c r="F268" s="44" t="s">
+        <v>144</v>
       </c>
       <c r="G268" s="35"/>
       <c r="H268" s="35"/>
@@ -9013,7 +9399,7 @@
         <v>0.5</v>
       </c>
       <c r="E269" s="12"/>
-      <c r="F269" s="40"/>
+      <c r="F269" s="46"/>
       <c r="G269" s="35"/>
       <c r="H269" s="35"/>
       <c r="I269" s="35"/>
@@ -9096,8 +9482,8 @@
         <v>1</v>
       </c>
       <c r="E272" s="11"/>
-      <c r="F272" s="38" t="s">
-        <v>170</v>
+      <c r="F272" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="G272" s="35"/>
       <c r="H272" s="35"/>
@@ -9127,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="E273" s="11"/>
-      <c r="F273" s="38"/>
+      <c r="F273" s="44"/>
       <c r="G273" s="35"/>
       <c r="H273" s="35"/>
       <c r="I273" s="35"/>
@@ -9152,7 +9538,7 @@
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
-      <c r="F274" s="38"/>
+      <c r="F274" s="44"/>
       <c r="G274" s="35"/>
       <c r="H274" s="35"/>
       <c r="I274" s="35"/>
@@ -9177,7 +9563,7 @@
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
-      <c r="F275" s="38"/>
+      <c r="F275" s="44"/>
       <c r="G275" s="35"/>
       <c r="H275" s="35"/>
       <c r="I275" s="35"/>
@@ -9202,7 +9588,7 @@
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
-      <c r="F276" s="38"/>
+      <c r="F276" s="44"/>
       <c r="G276" s="35"/>
       <c r="H276" s="35"/>
       <c r="I276" s="35"/>
@@ -9227,7 +9613,7 @@
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
-      <c r="F277" s="38"/>
+      <c r="F277" s="44"/>
       <c r="G277" s="35"/>
       <c r="H277" s="35"/>
       <c r="I277" s="35"/>
@@ -9252,7 +9638,7 @@
       <c r="C278" s="15"/>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
-      <c r="F278" s="39"/>
+      <c r="F278" s="45"/>
       <c r="G278" s="35"/>
       <c r="H278" s="35"/>
       <c r="I278" s="35"/>
@@ -9460,7 +9846,7 @@
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D286" s="5">
         <f>D284/5</f>
@@ -9972,7 +10358,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -10047,17 +10433,17 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="B3" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="5"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -10086,15 +10472,15 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="5"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -10160,17 +10546,17 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="B6" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="5"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -10199,15 +10585,15 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="5"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
@@ -10236,15 +10622,15 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="5"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
@@ -10313,7 +10699,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -10389,7 +10775,7 @@
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -10427,17 +10813,17 @@
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="B13" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="5"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -10466,15 +10852,15 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="5"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -10541,7 +10927,7 @@
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -10615,17 +11001,17 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="B18" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="5"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -10691,17 +11077,17 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="B20" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="5"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -10730,15 +11116,15 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="5"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
@@ -10804,17 +11190,17 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="5"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
@@ -10843,15 +11229,15 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="5"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -10917,17 +11303,17 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="B26" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="5"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
@@ -10956,15 +11342,15 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
       <c r="K27" s="5"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -10993,15 +11379,15 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="5"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -11067,17 +11453,17 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="B30" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
       <c r="K30" s="5"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
@@ -11143,17 +11529,17 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="B32" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="5"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
@@ -11220,7 +11606,7 @@
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -11298,7 +11684,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -11373,17 +11759,17 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
+      <c r="B38" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
       <c r="K38" s="5"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -11412,15 +11798,15 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
       <c r="K39" s="5"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -11487,7 +11873,7 @@
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -11562,17 +11948,17 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="B43" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
       <c r="K43" s="5"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -11601,15 +11987,15 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
       <c r="K44" s="5"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -11638,15 +12024,15 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="5"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
@@ -11712,17 +12098,17 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="B47" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="5"/>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -11751,15 +12137,15 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="5"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -11825,17 +12211,17 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
+      <c r="B50" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="5"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
@@ -11864,15 +12250,15 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="5"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
@@ -11901,15 +12287,15 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="5"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -11938,15 +12324,15 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
       <c r="K53" s="5"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
@@ -12015,7 +12401,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -12090,17 +12476,17 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
+      <c r="B57" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
       <c r="K57" s="5"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
@@ -12129,15 +12515,15 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
       <c r="K58" s="5"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -12166,15 +12552,15 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
       <c r="K59" s="5"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
@@ -12240,17 +12626,17 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
+      <c r="B61" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="5"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
@@ -12279,15 +12665,15 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="5"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
@@ -12353,17 +12739,17 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
+      <c r="B64" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
       <c r="K64" s="5"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
@@ -12429,17 +12815,17 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
+      <c r="B66" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="5"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
@@ -12468,15 +12854,15 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
       <c r="K67" s="5"/>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
@@ -12542,17 +12928,17 @@
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="B69" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
       <c r="K69" s="5"/>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
@@ -12581,15 +12967,15 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
       <c r="K70" s="5"/>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
@@ -12655,17 +13041,17 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
+      <c r="B72" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
       <c r="K72" s="5"/>
       <c r="L72" s="35"/>
       <c r="M72" s="35"/>
@@ -12694,15 +13080,15 @@
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
       <c r="K73" s="5"/>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
@@ -12771,7 +13157,7 @@
         <v>40</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -12847,7 +13233,7 @@
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -12886,16 +13272,16 @@
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="17"/>
-      <c r="C78" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
+      <c r="C78" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
       <c r="K78" s="5"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
@@ -12925,14 +13311,14 @@
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="5"/>
       <c r="L79" s="35"/>
       <c r="M79" s="35"/>
@@ -12999,7 +13385,7 @@
     <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -13038,16 +13424,16 @@
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
+      <c r="C82" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
       <c r="K82" s="5"/>
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
@@ -13114,7 +13500,7 @@
     <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -13153,16 +13539,16 @@
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
+      <c r="C85" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
       <c r="K85" s="5"/>
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
@@ -13229,7 +13615,7 @@
     <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -13268,16 +13654,16 @@
     <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
+      <c r="C88" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
       <c r="K88" s="5"/>
       <c r="L88" s="35"/>
       <c r="M88" s="35"/>
@@ -13346,7 +13732,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -13422,13 +13808,13 @@
     <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -13500,20 +13886,20 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C94" s="27"/>
       <c r="D94" s="28"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="J94" s="42"/>
+      <c r="F94" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="52"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J94" s="48"/>
       <c r="K94" s="5"/>
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
@@ -13546,11 +13932,11 @@
       <c r="C95" s="30"/>
       <c r="D95" s="31"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="42"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="48"/>
       <c r="K95" s="5"/>
       <c r="L95" s="35"/>
       <c r="M95" s="35"/>
@@ -13580,7 +13966,7 @@
     <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C96" s="27"/>
       <c r="D96" s="28"/>
@@ -13588,8 +13974,8 @@
       <c r="F96" s="21"/>
       <c r="G96" s="22"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="42"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="48"/>
       <c r="K96" s="5"/>
       <c r="L96" s="35"/>
       <c r="M96" s="35"/>
@@ -13625,8 +14011,8 @@
       <c r="F97" s="24"/>
       <c r="G97" s="12"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="42"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="48"/>
       <c r="K97" s="5"/>
       <c r="L97" s="35"/>
       <c r="M97" s="35"/>
@@ -13656,7 +14042,7 @@
     <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C98" s="27"/>
       <c r="D98" s="28"/>
@@ -13664,10 +14050,10 @@
       <c r="F98" s="21"/>
       <c r="G98" s="22"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="J98" s="42"/>
+      <c r="I98" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="J98" s="48"/>
       <c r="K98" s="5"/>
       <c r="L98" s="35"/>
       <c r="M98" s="35"/>
@@ -13703,8 +14089,8 @@
       <c r="F99" s="24"/>
       <c r="G99" s="12"/>
       <c r="H99" s="25"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="42"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="48"/>
       <c r="K99" s="5"/>
       <c r="L99" s="35"/>
       <c r="M99" s="35"/>
@@ -14873,4 +15259,3786 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="35"/>
+      <c r="AF56" s="35"/>
+      <c r="AG56" s="35"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="35"/>
+      <c r="AG58" s="35"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="35"/>
+      <c r="AG62" s="35"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
+      <c r="AF72" s="35"/>
+      <c r="AG72" s="35"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
+      <c r="AC74" s="35"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="35"/>
+      <c r="AG74" s="35"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
+      <c r="AF76" s="35"/>
+      <c r="AG76" s="35"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="35"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="35"/>
+      <c r="AF78" s="35"/>
+      <c r="AG78" s="35"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="35"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="35"/>
+      <c r="AF79" s="35"/>
+      <c r="AG79" s="35"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A81" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="35"/>
+      <c r="AD88" s="35"/>
+      <c r="AE88" s="35"/>
+      <c r="AF88" s="35"/>
+      <c r="AG88" s="35"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="35"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="35"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="35"/>
+      <c r="AF90" s="35"/>
+      <c r="AG90" s="35"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
+      <c r="AB93" s="35"/>
+      <c r="AC93" s="35"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="35"/>
+      <c r="AF93" s="35"/>
+      <c r="AG93" s="35"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="35"/>
+      <c r="AF94" s="35"/>
+      <c r="AG94" s="35"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
+      <c r="AB95" s="35"/>
+      <c r="AC95" s="35"/>
+      <c r="AD95" s="35"/>
+      <c r="AE95" s="35"/>
+      <c r="AF95" s="35"/>
+      <c r="AG95" s="35"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="35"/>
+      <c r="Y96" s="35"/>
+      <c r="Z96" s="35"/>
+      <c r="AA96" s="35"/>
+      <c r="AB96" s="35"/>
+      <c r="AC96" s="35"/>
+      <c r="AD96" s="35"/>
+      <c r="AE96" s="35"/>
+      <c r="AF96" s="35"/>
+      <c r="AG96" s="35"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="35"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="35"/>
+      <c r="Y97" s="35"/>
+      <c r="Z97" s="35"/>
+      <c r="AA97" s="35"/>
+      <c r="AB97" s="35"/>
+      <c r="AC97" s="35"/>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="35"/>
+      <c r="AF97" s="35"/>
+      <c r="AG97" s="35"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="35"/>
+      <c r="W98" s="35"/>
+      <c r="X98" s="35"/>
+      <c r="Y98" s="35"/>
+      <c r="Z98" s="35"/>
+      <c r="AA98" s="35"/>
+      <c r="AB98" s="35"/>
+      <c r="AC98" s="35"/>
+      <c r="AD98" s="35"/>
+      <c r="AE98" s="35"/>
+      <c r="AF98" s="35"/>
+      <c r="AG98" s="35"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" s="35"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="35"/>
+      <c r="W99" s="35"/>
+      <c r="X99" s="35"/>
+      <c r="Y99" s="35"/>
+      <c r="Z99" s="35"/>
+      <c r="AA99" s="35"/>
+      <c r="AB99" s="35"/>
+      <c r="AC99" s="35"/>
+      <c r="AD99" s="35"/>
+      <c r="AE99" s="35"/>
+      <c r="AF99" s="35"/>
+      <c r="AG99" s="35"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" s="35"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="35"/>
+      <c r="W100" s="35"/>
+      <c r="X100" s="35"/>
+      <c r="Y100" s="35"/>
+      <c r="Z100" s="35"/>
+      <c r="AA100" s="35"/>
+      <c r="AB100" s="35"/>
+      <c r="AC100" s="35"/>
+      <c r="AD100" s="35"/>
+      <c r="AE100" s="35"/>
+      <c r="AF100" s="35"/>
+      <c r="AG100" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="B79:G80"/>
+    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="A34:G34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/TZ.xlsx
+++ b/doc/TZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="ТЗ" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="283">
   <si>
     <t>Главная страница</t>
   </si>
@@ -733,6 +733,12 @@
     <t>НА КАЖДОГО</t>
   </si>
   <si>
+    <t>1 человек на все пункты</t>
+  </si>
+  <si>
+    <t>Пункты 5.1-5.2 - 1 человек, 2 человека на остальные пункты</t>
+  </si>
+  <si>
     <t>Вариант разбиения</t>
   </si>
   <si>
@@ -884,6 +890,9 @@
     </r>
   </si>
   <si>
+    <t>По остаточному принципу, добирать, сколько не хватило до среднего</t>
+  </si>
+  <si>
     <t xml:space="preserve">Простенькая панель администратора, список доступных форм </t>
   </si>
   <si>
@@ -1021,9 +1030,6 @@
     <t>Книга</t>
   </si>
   <si>
-    <t>ISBN, имя автора, имя автора в оригинале, переведённое название, дата выхода</t>
-  </si>
-  <si>
     <t>Субтитры</t>
   </si>
   <si>
@@ -1200,6 +1206,24 @@
   </si>
   <si>
     <t>Параметры настроек (JSON)</t>
+  </si>
+  <si>
+    <t>ISBN, имя автора, имя автора в оригинале, дата выхода</t>
+  </si>
+  <si>
+    <t>Языки</t>
+  </si>
+  <si>
+    <t>Название языка</t>
+  </si>
+  <si>
+    <t>Настройка языков</t>
+  </si>
+  <si>
+    <t>6.6.</t>
+  </si>
+  <si>
+    <t>Настройка названий языков, доступных системе. Редактируется только администраторами</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1516,6 +1540,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1523,24 +1550,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1562,10 +1593,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1601,14 +1628,14 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2078,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W302"/>
+  <dimension ref="A1:W306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -2103,25 +2130,25 @@
       <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L1" s="5">
-        <f>D286</f>
-        <v>23.1</v>
+        <f>D290</f>
+        <v>23.3</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="35"/>
@@ -2170,10 +2197,12 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="G3" s="35"/>
       <c r="H3" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2230,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G5" s="35"/>
@@ -2261,7 +2290,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="46"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
@@ -2293,7 +2322,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="35"/>
       <c r="H7" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I7" s="5">
         <f>SUM(I4:I6)</f>
@@ -2329,7 +2358,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -2355,8 +2384,8 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="44" t="s">
-        <v>154</v>
+      <c r="F9" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="5"/>
@@ -2386,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="46"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="35"/>
       <c r="H10" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2451,7 +2480,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2477,8 +2506,8 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="44" t="s">
-        <v>153</v>
+      <c r="F13" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="5"/>
@@ -2508,10 +2537,10 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="35"/>
       <c r="H14" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2606,7 +2635,7 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I17" s="5">
         <f>SUM(I15:I16)</f>
@@ -2638,7 +2667,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -2743,7 +2772,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="35"/>
       <c r="H22" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2771,7 +2800,9 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="G23" s="35"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5">
@@ -2836,7 +2867,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="35"/>
       <c r="H25" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I25" s="5">
         <f>SUM(I23:I24)</f>
@@ -2867,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="46" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="35"/>
@@ -2898,10 +2929,10 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="35"/>
       <c r="H27" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2932,7 +2963,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2965,7 +2996,7 @@
         <v>10.5</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -2991,12 +3022,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="46" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I30" s="5">
         <f>SUM(I28:I29)</f>
@@ -3027,12 +3058,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="35"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -3112,13 +3143,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="46" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -3145,14 +3176,14 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="35"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5">
         <v>0.5</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3240,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="46" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="35"/>
@@ -3275,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="44"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="35"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5">
@@ -3304,14 +3335,14 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="45"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="35"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -3335,12 +3366,16 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -3467,7 +3502,9 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -3550,8 +3587,8 @@
         <v>4</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="44" t="s">
-        <v>159</v>
+      <c r="F49" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
@@ -3581,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="44"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
@@ -3606,7 +3643,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="44"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -3631,7 +3668,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="44"/>
+      <c r="F52" s="46"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -3656,7 +3693,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="44"/>
+      <c r="F53" s="46"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3681,7 +3718,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="44"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -3706,7 +3743,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -3789,8 +3826,8 @@
         <v>4</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="44" t="s">
-        <v>160</v>
+      <c r="F58" s="46" t="s">
+        <v>162</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -3820,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="44"/>
+      <c r="F59" s="46"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -3845,7 +3882,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="44"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -3870,7 +3907,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="44"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
@@ -3895,7 +3932,7 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
@@ -3944,7 +3981,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3978,8 +4015,8 @@
         <v>2</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="44" t="s">
-        <v>161</v>
+      <c r="F65" s="46" t="s">
+        <v>163</v>
       </c>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
@@ -4009,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
@@ -4092,8 +4129,8 @@
         <v>3</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="44" t="s">
-        <v>163</v>
+      <c r="F69" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
@@ -4123,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="11"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="46"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
@@ -4148,7 +4185,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="46"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
@@ -4232,7 +4269,7 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
@@ -4358,7 +4395,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="45"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -4517,7 +4554,9 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
@@ -4600,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="44" t="s">
+      <c r="F88" s="46" t="s">
         <v>91</v>
       </c>
       <c r="G88" s="35"/>
@@ -4631,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="46"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
@@ -4656,7 +4695,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="46"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
@@ -4681,7 +4720,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="44"/>
+      <c r="F91" s="46"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
@@ -4706,7 +4745,7 @@
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="47"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
@@ -4789,7 +4828,7 @@
         <v>0.5</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="46" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="35"/>
@@ -4820,7 +4859,7 @@
         <v>0.5</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="44"/>
+      <c r="F96" s="46"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
       <c r="I96" s="35"/>
@@ -4845,7 +4884,7 @@
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="46"/>
+      <c r="F97" s="47"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
       <c r="I97" s="35"/>
@@ -4928,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="11"/>
-      <c r="F100" s="44" t="s">
+      <c r="F100" s="46" t="s">
         <v>88</v>
       </c>
       <c r="G100" s="35"/>
@@ -4959,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="12"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="47"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
@@ -5042,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="11"/>
-      <c r="F104" s="44" t="s">
+      <c r="F104" s="46" t="s">
         <v>143</v>
       </c>
       <c r="G104" s="35"/>
@@ -5073,7 +5112,7 @@
         <v>0.5</v>
       </c>
       <c r="E105" s="11"/>
-      <c r="F105" s="44"/>
+      <c r="F105" s="46"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
       <c r="I105" s="35"/>
@@ -5098,7 +5137,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="44"/>
+      <c r="F106" s="46"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
       <c r="I106" s="35"/>
@@ -5123,7 +5162,7 @@
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="44"/>
+      <c r="F107" s="46"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="35"/>
@@ -5148,7 +5187,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="44"/>
+      <c r="F108" s="46"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
@@ -5173,7 +5212,7 @@
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="44"/>
+      <c r="F109" s="46"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
       <c r="I109" s="35"/>
@@ -5198,7 +5237,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="44"/>
+      <c r="F110" s="46"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="35"/>
@@ -5223,7 +5262,7 @@
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="46"/>
+      <c r="F111" s="47"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="35"/>
@@ -5306,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="44" t="s">
+      <c r="F114" s="46" t="s">
         <v>90</v>
       </c>
       <c r="G114" s="35"/>
@@ -5337,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="5"/>
-      <c r="F115" s="44"/>
+      <c r="F115" s="46"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="35"/>
@@ -5362,7 +5401,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="44"/>
+      <c r="F116" s="46"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="35"/>
@@ -5387,7 +5426,7 @@
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="46"/>
+      <c r="F117" s="47"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="35"/>
@@ -5470,8 +5509,8 @@
         <v>1</v>
       </c>
       <c r="E120" s="11"/>
-      <c r="F120" s="44" t="s">
-        <v>254</v>
+      <c r="F120" s="46" t="s">
+        <v>256</v>
       </c>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
@@ -5501,7 +5540,7 @@
         <v>0.5</v>
       </c>
       <c r="E121" s="15"/>
-      <c r="F121" s="45"/>
+      <c r="F121" s="49"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
@@ -5660,7 +5699,9 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="9"/>
+      <c r="F127" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
       <c r="I127" s="35"/>
@@ -5743,7 +5784,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="11"/>
-      <c r="F130" s="44" t="s">
+      <c r="F130" s="46" t="s">
         <v>134</v>
       </c>
       <c r="G130" s="35"/>
@@ -5774,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="11"/>
-      <c r="F131" s="44"/>
+      <c r="F131" s="46"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
       <c r="I131" s="35"/>
@@ -5799,7 +5840,7 @@
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
-      <c r="F132" s="44"/>
+      <c r="F132" s="46"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
@@ -5824,7 +5865,7 @@
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
-      <c r="F133" s="44"/>
+      <c r="F133" s="46"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
@@ -5849,7 +5890,7 @@
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="44"/>
+      <c r="F134" s="46"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
@@ -5874,7 +5915,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="44"/>
+      <c r="F135" s="46"/>
       <c r="G135" s="35"/>
       <c r="H135" s="35"/>
       <c r="I135" s="35"/>
@@ -5899,7 +5940,7 @@
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
-      <c r="F136" s="44"/>
+      <c r="F136" s="46"/>
       <c r="G136" s="35"/>
       <c r="H136" s="35"/>
       <c r="I136" s="35"/>
@@ -5924,7 +5965,7 @@
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
-      <c r="F137" s="44"/>
+      <c r="F137" s="46"/>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
       <c r="I137" s="35"/>
@@ -5949,7 +5990,7 @@
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="44"/>
+      <c r="F138" s="46"/>
       <c r="G138" s="35"/>
       <c r="H138" s="35"/>
       <c r="I138" s="35"/>
@@ -5974,7 +6015,7 @@
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="44"/>
+      <c r="F139" s="46"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -5999,7 +6040,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
-      <c r="F140" s="44"/>
+      <c r="F140" s="46"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
       <c r="I140" s="35"/>
@@ -6024,7 +6065,7 @@
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
-      <c r="F141" s="44"/>
+      <c r="F141" s="46"/>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
       <c r="I141" s="35"/>
@@ -6049,7 +6090,7 @@
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
-      <c r="F142" s="44"/>
+      <c r="F142" s="46"/>
       <c r="G142" s="35"/>
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
@@ -6074,7 +6115,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
-      <c r="F143" s="44"/>
+      <c r="F143" s="46"/>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
@@ -6099,7 +6140,7 @@
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
-      <c r="F144" s="44"/>
+      <c r="F144" s="46"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
@@ -6124,7 +6165,7 @@
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="46"/>
+      <c r="F145" s="47"/>
       <c r="G145" s="35"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
@@ -6207,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="5"/>
-      <c r="F148" s="44" t="s">
+      <c r="F148" s="46" t="s">
         <v>104</v>
       </c>
       <c r="G148" s="35"/>
@@ -6238,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="5"/>
-      <c r="F149" s="44"/>
+      <c r="F149" s="46"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
       <c r="I149" s="35"/>
@@ -6263,7 +6304,7 @@
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
-      <c r="F150" s="46"/>
+      <c r="F150" s="47"/>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
@@ -6346,8 +6387,8 @@
         <v>4</v>
       </c>
       <c r="E153" s="11"/>
-      <c r="F153" s="44" t="s">
-        <v>167</v>
+      <c r="F153" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="G153" s="35"/>
       <c r="H153" s="35"/>
@@ -6377,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="11"/>
-      <c r="F154" s="44"/>
+      <c r="F154" s="46"/>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
@@ -6402,7 +6443,7 @@
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
-      <c r="F155" s="44"/>
+      <c r="F155" s="46"/>
       <c r="G155" s="35"/>
       <c r="H155" s="35"/>
       <c r="I155" s="35"/>
@@ -6427,7 +6468,7 @@
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
-      <c r="F156" s="44"/>
+      <c r="F156" s="46"/>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
@@ -6452,7 +6493,7 @@
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="44"/>
+      <c r="F157" s="46"/>
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
@@ -6477,7 +6518,7 @@
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
-      <c r="F158" s="44"/>
+      <c r="F158" s="46"/>
       <c r="G158" s="35"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
@@ -6502,7 +6543,7 @@
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
-      <c r="F159" s="44"/>
+      <c r="F159" s="46"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
@@ -6527,7 +6568,7 @@
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
-      <c r="F160" s="44"/>
+      <c r="F160" s="46"/>
       <c r="G160" s="35"/>
       <c r="H160" s="35"/>
       <c r="I160" s="35"/>
@@ -6552,7 +6593,7 @@
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
-      <c r="F161" s="44"/>
+      <c r="F161" s="46"/>
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
@@ -6577,7 +6618,7 @@
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
-      <c r="F162" s="44"/>
+      <c r="F162" s="46"/>
       <c r="G162" s="35"/>
       <c r="H162" s="35"/>
       <c r="I162" s="35"/>
@@ -6602,7 +6643,7 @@
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
-      <c r="F163" s="44"/>
+      <c r="F163" s="46"/>
       <c r="G163" s="35"/>
       <c r="H163" s="35"/>
       <c r="I163" s="35"/>
@@ -6627,7 +6668,7 @@
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
-      <c r="F164" s="44"/>
+      <c r="F164" s="46"/>
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="I164" s="35"/>
@@ -6652,7 +6693,7 @@
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
-      <c r="F165" s="44"/>
+      <c r="F165" s="46"/>
       <c r="G165" s="35"/>
       <c r="H165" s="35"/>
       <c r="I165" s="35"/>
@@ -6677,7 +6718,7 @@
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="44"/>
+      <c r="F166" s="46"/>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
@@ -6702,7 +6743,7 @@
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
-      <c r="F167" s="44"/>
+      <c r="F167" s="46"/>
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
       <c r="I167" s="35"/>
@@ -6727,7 +6768,7 @@
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
-      <c r="F168" s="44"/>
+      <c r="F168" s="46"/>
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
@@ -6752,7 +6793,7 @@
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
-      <c r="F169" s="44"/>
+      <c r="F169" s="46"/>
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
       <c r="I169" s="35"/>
@@ -6777,7 +6818,7 @@
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
-      <c r="F170" s="44"/>
+      <c r="F170" s="46"/>
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
@@ -6802,7 +6843,7 @@
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="44"/>
+      <c r="F171" s="46"/>
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
       <c r="I171" s="35"/>
@@ -6827,7 +6868,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
-      <c r="F172" s="46"/>
+      <c r="F172" s="47"/>
       <c r="G172" s="35"/>
       <c r="H172" s="35"/>
       <c r="I172" s="35"/>
@@ -6910,8 +6951,8 @@
         <v>1</v>
       </c>
       <c r="E175" s="11"/>
-      <c r="F175" s="44" t="s">
-        <v>168</v>
+      <c r="F175" s="46" t="s">
+        <v>170</v>
       </c>
       <c r="G175" s="35"/>
       <c r="H175" s="35"/>
@@ -6941,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="E176" s="11"/>
-      <c r="F176" s="44"/>
+      <c r="F176" s="46"/>
       <c r="G176" s="35"/>
       <c r="H176" s="35"/>
       <c r="I176" s="35"/>
@@ -6966,7 +7007,7 @@
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
-      <c r="F177" s="46"/>
+      <c r="F177" s="47"/>
       <c r="G177" s="35"/>
       <c r="H177" s="35"/>
       <c r="I177" s="35"/>
@@ -7049,7 +7090,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="11"/>
-      <c r="F180" s="44" t="s">
+      <c r="F180" s="46" t="s">
         <v>129</v>
       </c>
       <c r="G180" s="35"/>
@@ -7080,7 +7121,7 @@
         <v>15</v>
       </c>
       <c r="E181" s="11"/>
-      <c r="F181" s="44"/>
+      <c r="F181" s="46"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
@@ -7105,7 +7146,7 @@
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
-      <c r="F182" s="44"/>
+      <c r="F182" s="46"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
@@ -7130,7 +7171,7 @@
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
-      <c r="F183" s="44"/>
+      <c r="F183" s="46"/>
       <c r="G183" s="35"/>
       <c r="H183" s="35"/>
       <c r="I183" s="35"/>
@@ -7155,7 +7196,7 @@
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
-      <c r="F184" s="44"/>
+      <c r="F184" s="46"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
@@ -7180,7 +7221,7 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="44"/>
+      <c r="F185" s="46"/>
       <c r="G185" s="35"/>
       <c r="H185" s="35"/>
       <c r="I185" s="35"/>
@@ -7205,7 +7246,7 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
-      <c r="F186" s="44"/>
+      <c r="F186" s="46"/>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
       <c r="I186" s="35"/>
@@ -7230,7 +7271,7 @@
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
-      <c r="F187" s="44"/>
+      <c r="F187" s="46"/>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
@@ -7255,7 +7296,7 @@
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
-      <c r="F188" s="44"/>
+      <c r="F188" s="46"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
@@ -7280,7 +7321,7 @@
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
-      <c r="F189" s="44"/>
+      <c r="F189" s="46"/>
       <c r="G189" s="35"/>
       <c r="H189" s="35"/>
       <c r="I189" s="35"/>
@@ -7305,7 +7346,7 @@
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="44"/>
+      <c r="F190" s="46"/>
       <c r="G190" s="35"/>
       <c r="H190" s="35"/>
       <c r="I190" s="35"/>
@@ -7330,7 +7371,7 @@
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
-      <c r="F191" s="44"/>
+      <c r="F191" s="46"/>
       <c r="G191" s="35"/>
       <c r="H191" s="35"/>
       <c r="I191" s="35"/>
@@ -7355,7 +7396,7 @@
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
-      <c r="F192" s="44"/>
+      <c r="F192" s="46"/>
       <c r="G192" s="35"/>
       <c r="H192" s="35"/>
       <c r="I192" s="35"/>
@@ -7380,7 +7421,7 @@
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
-      <c r="F193" s="44"/>
+      <c r="F193" s="46"/>
       <c r="G193" s="35"/>
       <c r="H193" s="35"/>
       <c r="I193" s="35"/>
@@ -7405,7 +7446,7 @@
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
-      <c r="F194" s="44"/>
+      <c r="F194" s="46"/>
       <c r="G194" s="35"/>
       <c r="H194" s="35"/>
       <c r="I194" s="35"/>
@@ -7430,7 +7471,7 @@
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
-      <c r="F195" s="44"/>
+      <c r="F195" s="46"/>
       <c r="G195" s="35"/>
       <c r="H195" s="35"/>
       <c r="I195" s="35"/>
@@ -7455,7 +7496,7 @@
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
-      <c r="F196" s="44"/>
+      <c r="F196" s="46"/>
       <c r="G196" s="35"/>
       <c r="H196" s="35"/>
       <c r="I196" s="35"/>
@@ -7480,7 +7521,7 @@
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
-      <c r="F197" s="44"/>
+      <c r="F197" s="46"/>
       <c r="G197" s="35"/>
       <c r="H197" s="35"/>
       <c r="I197" s="35"/>
@@ -7505,7 +7546,7 @@
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
-      <c r="F198" s="44"/>
+      <c r="F198" s="46"/>
       <c r="G198" s="35"/>
       <c r="H198" s="35"/>
       <c r="I198" s="35"/>
@@ -7530,7 +7571,7 @@
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
-      <c r="F199" s="44"/>
+      <c r="F199" s="46"/>
       <c r="G199" s="35"/>
       <c r="H199" s="35"/>
       <c r="I199" s="35"/>
@@ -7555,7 +7596,7 @@
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
-      <c r="F200" s="44"/>
+      <c r="F200" s="46"/>
       <c r="G200" s="35"/>
       <c r="H200" s="35"/>
       <c r="I200" s="35"/>
@@ -7580,7 +7621,7 @@
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
-      <c r="F201" s="44"/>
+      <c r="F201" s="46"/>
       <c r="G201" s="35"/>
       <c r="H201" s="35"/>
       <c r="I201" s="35"/>
@@ -7605,7 +7646,7 @@
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
-      <c r="F202" s="44"/>
+      <c r="F202" s="46"/>
       <c r="G202" s="35"/>
       <c r="H202" s="35"/>
       <c r="I202" s="35"/>
@@ -7630,7 +7671,7 @@
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
-      <c r="F203" s="44"/>
+      <c r="F203" s="46"/>
       <c r="G203" s="35"/>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
@@ -7655,7 +7696,7 @@
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
-      <c r="F204" s="44"/>
+      <c r="F204" s="46"/>
       <c r="G204" s="35"/>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
@@ -7680,7 +7721,7 @@
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
-      <c r="F205" s="44"/>
+      <c r="F205" s="46"/>
       <c r="G205" s="35"/>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
@@ -7705,7 +7746,7 @@
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
-      <c r="F206" s="44"/>
+      <c r="F206" s="46"/>
       <c r="G206" s="35"/>
       <c r="H206" s="35"/>
       <c r="I206" s="35"/>
@@ -7730,7 +7771,7 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
-      <c r="F207" s="44"/>
+      <c r="F207" s="46"/>
       <c r="G207" s="35"/>
       <c r="H207" s="35"/>
       <c r="I207" s="35"/>
@@ -7755,7 +7796,7 @@
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
-      <c r="F208" s="44"/>
+      <c r="F208" s="46"/>
       <c r="G208" s="35"/>
       <c r="H208" s="35"/>
       <c r="I208" s="35"/>
@@ -7780,7 +7821,7 @@
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
-      <c r="F209" s="44"/>
+      <c r="F209" s="46"/>
       <c r="G209" s="35"/>
       <c r="H209" s="35"/>
       <c r="I209" s="35"/>
@@ -7805,7 +7846,7 @@
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
-      <c r="F210" s="44"/>
+      <c r="F210" s="46"/>
       <c r="G210" s="35"/>
       <c r="H210" s="35"/>
       <c r="I210" s="35"/>
@@ -7830,7 +7871,7 @@
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
-      <c r="F211" s="44"/>
+      <c r="F211" s="46"/>
       <c r="G211" s="35"/>
       <c r="H211" s="35"/>
       <c r="I211" s="35"/>
@@ -7855,7 +7896,7 @@
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
-      <c r="F212" s="44"/>
+      <c r="F212" s="46"/>
       <c r="G212" s="35"/>
       <c r="H212" s="35"/>
       <c r="I212" s="35"/>
@@ -7880,7 +7921,7 @@
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
-      <c r="F213" s="44"/>
+      <c r="F213" s="46"/>
       <c r="G213" s="35"/>
       <c r="H213" s="35"/>
       <c r="I213" s="35"/>
@@ -7905,7 +7946,7 @@
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
-      <c r="F214" s="44"/>
+      <c r="F214" s="46"/>
       <c r="G214" s="35"/>
       <c r="H214" s="35"/>
       <c r="I214" s="35"/>
@@ -7930,7 +7971,7 @@
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
-      <c r="F215" s="46"/>
+      <c r="F215" s="47"/>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
       <c r="I215" s="35"/>
@@ -8013,7 +8054,7 @@
         <v>4</v>
       </c>
       <c r="E218" s="11"/>
-      <c r="F218" s="44" t="s">
+      <c r="F218" s="46" t="s">
         <v>128</v>
       </c>
       <c r="G218" s="35"/>
@@ -8040,7 +8081,7 @@
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
-      <c r="F219" s="46"/>
+      <c r="F219" s="47"/>
       <c r="G219" s="35"/>
       <c r="H219" s="35"/>
       <c r="I219" s="35"/>
@@ -8123,8 +8164,8 @@
         <v>3</v>
       </c>
       <c r="E222" s="11"/>
-      <c r="F222" s="44" t="s">
-        <v>165</v>
+      <c r="F222" s="46" t="s">
+        <v>167</v>
       </c>
       <c r="G222" s="35"/>
       <c r="H222" s="35"/>
@@ -8150,7 +8191,7 @@
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
-      <c r="F223" s="44"/>
+      <c r="F223" s="46"/>
       <c r="G223" s="35"/>
       <c r="H223" s="35"/>
       <c r="I223" s="35"/>
@@ -8175,7 +8216,7 @@
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
-      <c r="F224" s="44"/>
+      <c r="F224" s="46"/>
       <c r="G224" s="35"/>
       <c r="H224" s="35"/>
       <c r="I224" s="35"/>
@@ -8200,7 +8241,7 @@
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
-      <c r="F225" s="44"/>
+      <c r="F225" s="46"/>
       <c r="G225" s="35"/>
       <c r="H225" s="35"/>
       <c r="I225" s="35"/>
@@ -8225,7 +8266,7 @@
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
-      <c r="F226" s="46"/>
+      <c r="F226" s="47"/>
       <c r="G226" s="35"/>
       <c r="H226" s="35"/>
       <c r="I226" s="35"/>
@@ -8308,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="11"/>
-      <c r="F229" s="44" t="s">
+      <c r="F229" s="46" t="s">
         <v>130</v>
       </c>
       <c r="G229" s="35"/>
@@ -8339,7 +8380,7 @@
         <v>0.5</v>
       </c>
       <c r="E230" s="12"/>
-      <c r="F230" s="46"/>
+      <c r="F230" s="47"/>
       <c r="G230" s="35"/>
       <c r="H230" s="35"/>
       <c r="I230" s="35"/>
@@ -8422,8 +8463,8 @@
         <v>1</v>
       </c>
       <c r="E233" s="11"/>
-      <c r="F233" s="44" t="s">
-        <v>172</v>
+      <c r="F233" s="46" t="s">
+        <v>175</v>
       </c>
       <c r="G233" s="35"/>
       <c r="H233" s="35"/>
@@ -8453,7 +8494,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="11"/>
-      <c r="F234" s="44"/>
+      <c r="F234" s="46"/>
       <c r="G234" s="35"/>
       <c r="H234" s="35"/>
       <c r="I234" s="35"/>
@@ -8478,7 +8519,7 @@
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
-      <c r="F235" s="44"/>
+      <c r="F235" s="46"/>
       <c r="G235" s="35"/>
       <c r="H235" s="35"/>
       <c r="I235" s="35"/>
@@ -8503,7 +8544,7 @@
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
-      <c r="F236" s="45"/>
+      <c r="F236" s="49"/>
       <c r="G236" s="35"/>
       <c r="H236" s="35"/>
       <c r="I236" s="35"/>
@@ -8662,7 +8703,9 @@
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
-      <c r="F242" s="9"/>
+      <c r="F242" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="G242" s="35"/>
       <c r="H242" s="35"/>
       <c r="I242" s="35"/>
@@ -8717,7 +8760,7 @@
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G244" s="35"/>
       <c r="H244" s="35"/>
@@ -8801,7 +8844,7 @@
         <v>2</v>
       </c>
       <c r="E247" s="11"/>
-      <c r="F247" s="44" t="s">
+      <c r="F247" s="46" t="s">
         <v>140</v>
       </c>
       <c r="G247" s="35"/>
@@ -8832,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="11"/>
-      <c r="F248" s="44"/>
+      <c r="F248" s="46"/>
       <c r="G248" s="35"/>
       <c r="H248" s="35"/>
       <c r="I248" s="35"/>
@@ -8857,7 +8900,7 @@
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
-      <c r="F249" s="46"/>
+      <c r="F249" s="47"/>
       <c r="G249" s="35"/>
       <c r="H249" s="35"/>
       <c r="I249" s="35"/>
@@ -8940,7 +8983,7 @@
         <v>2</v>
       </c>
       <c r="E252" s="11"/>
-      <c r="F252" s="44" t="s">
+      <c r="F252" s="46" t="s">
         <v>141</v>
       </c>
       <c r="G252" s="35"/>
@@ -8971,7 +9014,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="11"/>
-      <c r="F253" s="44"/>
+      <c r="F253" s="46"/>
       <c r="G253" s="35"/>
       <c r="H253" s="35"/>
       <c r="I253" s="35"/>
@@ -8996,7 +9039,7 @@
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
-      <c r="F254" s="44"/>
+      <c r="F254" s="46"/>
       <c r="G254" s="35"/>
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
@@ -9021,7 +9064,7 @@
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
-      <c r="F255" s="44"/>
+      <c r="F255" s="46"/>
       <c r="G255" s="35"/>
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
@@ -9046,7 +9089,7 @@
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
-      <c r="F256" s="44"/>
+      <c r="F256" s="46"/>
       <c r="G256" s="35"/>
       <c r="H256" s="35"/>
       <c r="I256" s="35"/>
@@ -9071,7 +9114,7 @@
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
-      <c r="F257" s="44"/>
+      <c r="F257" s="46"/>
       <c r="G257" s="35"/>
       <c r="H257" s="35"/>
       <c r="I257" s="35"/>
@@ -9096,7 +9139,7 @@
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
-      <c r="F258" s="44"/>
+      <c r="F258" s="46"/>
       <c r="G258" s="35"/>
       <c r="H258" s="35"/>
       <c r="I258" s="35"/>
@@ -9121,7 +9164,7 @@
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
-      <c r="F259" s="44"/>
+      <c r="F259" s="46"/>
       <c r="G259" s="35"/>
       <c r="H259" s="35"/>
       <c r="I259" s="35"/>
@@ -9146,7 +9189,7 @@
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
-      <c r="F260" s="44"/>
+      <c r="F260" s="46"/>
       <c r="G260" s="35"/>
       <c r="H260" s="35"/>
       <c r="I260" s="35"/>
@@ -9171,7 +9214,7 @@
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
-      <c r="F261" s="46"/>
+      <c r="F261" s="47"/>
       <c r="G261" s="35"/>
       <c r="H261" s="35"/>
       <c r="I261" s="35"/>
@@ -9254,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="11"/>
-      <c r="F264" s="44" t="s">
+      <c r="F264" s="46" t="s">
         <v>142</v>
       </c>
       <c r="G264" s="35"/>
@@ -9285,7 +9328,7 @@
         <v>0.5</v>
       </c>
       <c r="E265" s="12"/>
-      <c r="F265" s="46"/>
+      <c r="F265" s="47"/>
       <c r="G265" s="35"/>
       <c r="H265" s="35"/>
       <c r="I265" s="35"/>
@@ -9368,7 +9411,7 @@
         <v>0.5</v>
       </c>
       <c r="E268" s="11"/>
-      <c r="F268" s="44" t="s">
+      <c r="F268" s="46" t="s">
         <v>144</v>
       </c>
       <c r="G268" s="35"/>
@@ -9399,7 +9442,7 @@
         <v>0.5</v>
       </c>
       <c r="E269" s="12"/>
-      <c r="F269" s="46"/>
+      <c r="F269" s="47"/>
       <c r="G269" s="35"/>
       <c r="H269" s="35"/>
       <c r="I269" s="35"/>
@@ -9420,11 +9463,11 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
-      <c r="B270" s="5"/>
-      <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
-      <c r="F270" s="5"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="37"/>
       <c r="G270" s="35"/>
       <c r="H270" s="35"/>
       <c r="I270" s="35"/>
@@ -9448,12 +9491,12 @@
         <v>71</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="37"/>
       <c r="G271" s="35"/>
       <c r="H271" s="35"/>
       <c r="I271" s="35"/>
@@ -9472,18 +9515,18 @@
       <c r="V271" s="35"/>
       <c r="W271" s="35"/>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D272" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E272" s="11"/>
-      <c r="F272" s="44" t="s">
-        <v>171</v>
+      <c r="F272" s="46" t="s">
+        <v>282</v>
       </c>
       <c r="G272" s="35"/>
       <c r="H272" s="35"/>
@@ -9503,17 +9546,17 @@
       <c r="V272" s="35"/>
       <c r="W272" s="35"/>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11" t="s">
+      <c r="B273" s="12"/>
+      <c r="C273" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D273" s="11">
-        <v>1</v>
-      </c>
-      <c r="E273" s="11"/>
-      <c r="F273" s="44"/>
+      <c r="D273" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E273" s="12"/>
+      <c r="F273" s="47"/>
       <c r="G273" s="35"/>
       <c r="H273" s="35"/>
       <c r="I273" s="35"/>
@@ -9534,11 +9577,11 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="44"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
       <c r="G274" s="35"/>
       <c r="H274" s="35"/>
       <c r="I274" s="35"/>
@@ -9558,12 +9601,16 @@
       <c r="W274" s="35"/>
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="44"/>
+      <c r="A275" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
       <c r="G275" s="35"/>
       <c r="H275" s="35"/>
       <c r="I275" s="35"/>
@@ -9585,10 +9632,16 @@
     <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
+      <c r="C276" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" s="11">
+        <v>1</v>
+      </c>
       <c r="E276" s="11"/>
-      <c r="F276" s="44"/>
+      <c r="F276" s="46" t="s">
+        <v>174</v>
+      </c>
       <c r="G276" s="35"/>
       <c r="H276" s="35"/>
       <c r="I276" s="35"/>
@@ -9610,10 +9663,14 @@
     <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
+      <c r="C277" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="11">
+        <v>1</v>
+      </c>
       <c r="E277" s="11"/>
-      <c r="F277" s="44"/>
+      <c r="F277" s="46"/>
       <c r="G277" s="35"/>
       <c r="H277" s="35"/>
       <c r="I277" s="35"/>
@@ -9632,13 +9689,13 @@
       <c r="V277" s="35"/>
       <c r="W277" s="35"/>
     </row>
-    <row r="278" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="15"/>
-      <c r="E278" s="15"/>
-      <c r="F278" s="45"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="46"/>
       <c r="G278" s="35"/>
       <c r="H278" s="35"/>
       <c r="I278" s="35"/>
@@ -9657,13 +9714,13 @@
       <c r="V278" s="35"/>
       <c r="W278" s="35"/>
     </row>
-    <row r="279" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="46"/>
       <c r="G279" s="35"/>
       <c r="H279" s="35"/>
       <c r="I279" s="35"/>
@@ -9684,16 +9741,11 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
-      <c r="C280" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D280" s="5">
-        <f>SUM(D242:D279)</f>
-        <v>11</v>
-      </c>
-      <c r="E280" s="5"/>
-      <c r="F280" s="5"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="46"/>
       <c r="G280" s="35"/>
       <c r="H280" s="35"/>
       <c r="I280" s="35"/>
@@ -9714,11 +9766,11 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="46"/>
       <c r="G281" s="35"/>
       <c r="H281" s="35"/>
       <c r="I281" s="35"/>
@@ -9737,13 +9789,13 @@
       <c r="V281" s="35"/>
       <c r="W281" s="35"/>
     </row>
-    <row r="282" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
+    <row r="282" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="5"/>
+      <c r="B282" s="15"/>
+      <c r="C282" s="15"/>
+      <c r="D282" s="15"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="49"/>
       <c r="G282" s="35"/>
       <c r="H282" s="35"/>
       <c r="I282" s="35"/>
@@ -9762,7 +9814,7 @@
       <c r="V282" s="35"/>
       <c r="W282" s="35"/>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -9790,12 +9842,12 @@
     <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
-      <c r="C284" s="10" t="s">
-        <v>67</v>
+      <c r="C284" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="D284" s="5">
-        <f>D280+D238+D123+D81+D42+D19</f>
-        <v>115.5</v>
+        <f>SUM(D242:D283)</f>
+        <v>12</v>
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
@@ -9842,18 +9894,13 @@
       <c r="V285" s="35"/>
       <c r="W285" s="35"/>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
-      <c r="B286" s="5"/>
-      <c r="C286" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D286" s="5">
-        <f>D284/5</f>
-        <v>23.1</v>
-      </c>
-      <c r="E286" s="5"/>
-      <c r="F286" s="5"/>
+    <row r="286" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
       <c r="G286" s="35"/>
       <c r="H286" s="35"/>
       <c r="I286" s="35"/>
@@ -9898,12 +9945,17 @@
       <c r="W287" s="35"/>
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A288" s="35"/>
-      <c r="B288" s="35"/>
-      <c r="C288" s="35"/>
-      <c r="D288" s="35"/>
-      <c r="E288" s="35"/>
-      <c r="F288" s="35"/>
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D288" s="5">
+        <f>D284+D238+D123+D81+D42+D19</f>
+        <v>116.5</v>
+      </c>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
       <c r="G288" s="35"/>
       <c r="H288" s="35"/>
       <c r="I288" s="35"/>
@@ -9923,12 +9975,12 @@
       <c r="W288" s="35"/>
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A289" s="35"/>
-      <c r="B289" s="35"/>
-      <c r="C289" s="35"/>
-      <c r="D289" s="35"/>
-      <c r="E289" s="35"/>
-      <c r="F289" s="35"/>
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
       <c r="G289" s="35"/>
       <c r="H289" s="35"/>
       <c r="I289" s="35"/>
@@ -9948,12 +10000,17 @@
       <c r="W289" s="35"/>
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A290" s="35"/>
-      <c r="B290" s="35"/>
-      <c r="C290" s="35"/>
-      <c r="D290" s="35"/>
-      <c r="E290" s="35"/>
-      <c r="F290" s="35"/>
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D290" s="5">
+        <f>D288/5</f>
+        <v>23.3</v>
+      </c>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
       <c r="G290" s="35"/>
       <c r="H290" s="35"/>
       <c r="I290" s="35"/>
@@ -9973,12 +10030,12 @@
       <c r="W290" s="35"/>
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A291" s="35"/>
-      <c r="B291" s="35"/>
-      <c r="C291" s="35"/>
-      <c r="D291" s="35"/>
-      <c r="E291" s="35"/>
-      <c r="F291" s="35"/>
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
       <c r="G291" s="35"/>
       <c r="H291" s="35"/>
       <c r="I291" s="35"/>
@@ -10272,8 +10329,133 @@
       <c r="V302" s="35"/>
       <c r="W302" s="35"/>
     </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A303" s="35"/>
+      <c r="B303" s="35"/>
+      <c r="C303" s="35"/>
+      <c r="D303" s="35"/>
+      <c r="E303" s="35"/>
+      <c r="F303" s="35"/>
+      <c r="G303" s="35"/>
+      <c r="H303" s="35"/>
+      <c r="I303" s="35"/>
+      <c r="J303" s="35"/>
+      <c r="K303" s="35"/>
+      <c r="L303" s="35"/>
+      <c r="M303" s="35"/>
+      <c r="N303" s="35"/>
+      <c r="O303" s="35"/>
+      <c r="P303" s="35"/>
+      <c r="Q303" s="35"/>
+      <c r="R303" s="35"/>
+      <c r="S303" s="35"/>
+      <c r="T303" s="35"/>
+      <c r="U303" s="35"/>
+      <c r="V303" s="35"/>
+      <c r="W303" s="35"/>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A304" s="35"/>
+      <c r="B304" s="35"/>
+      <c r="C304" s="35"/>
+      <c r="D304" s="35"/>
+      <c r="E304" s="35"/>
+      <c r="F304" s="35"/>
+      <c r="G304" s="35"/>
+      <c r="H304" s="35"/>
+      <c r="I304" s="35"/>
+      <c r="J304" s="35"/>
+      <c r="K304" s="35"/>
+      <c r="L304" s="35"/>
+      <c r="M304" s="35"/>
+      <c r="N304" s="35"/>
+      <c r="O304" s="35"/>
+      <c r="P304" s="35"/>
+      <c r="Q304" s="35"/>
+      <c r="R304" s="35"/>
+      <c r="S304" s="35"/>
+      <c r="T304" s="35"/>
+      <c r="U304" s="35"/>
+      <c r="V304" s="35"/>
+      <c r="W304" s="35"/>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A305" s="35"/>
+      <c r="B305" s="35"/>
+      <c r="C305" s="35"/>
+      <c r="D305" s="35"/>
+      <c r="E305" s="35"/>
+      <c r="F305" s="35"/>
+      <c r="G305" s="35"/>
+      <c r="H305" s="35"/>
+      <c r="I305" s="35"/>
+      <c r="J305" s="35"/>
+      <c r="K305" s="35"/>
+      <c r="L305" s="35"/>
+      <c r="M305" s="35"/>
+      <c r="N305" s="35"/>
+      <c r="O305" s="35"/>
+      <c r="P305" s="35"/>
+      <c r="Q305" s="35"/>
+      <c r="R305" s="35"/>
+      <c r="S305" s="35"/>
+      <c r="T305" s="35"/>
+      <c r="U305" s="35"/>
+      <c r="V305" s="35"/>
+      <c r="W305" s="35"/>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A306" s="35"/>
+      <c r="B306" s="35"/>
+      <c r="C306" s="35"/>
+      <c r="D306" s="35"/>
+      <c r="E306" s="35"/>
+      <c r="F306" s="35"/>
+      <c r="G306" s="35"/>
+      <c r="H306" s="35"/>
+      <c r="I306" s="35"/>
+      <c r="J306" s="35"/>
+      <c r="K306" s="35"/>
+      <c r="L306" s="35"/>
+      <c r="M306" s="35"/>
+      <c r="N306" s="35"/>
+      <c r="O306" s="35"/>
+      <c r="P306" s="35"/>
+      <c r="Q306" s="35"/>
+      <c r="R306" s="35"/>
+      <c r="S306" s="35"/>
+      <c r="T306" s="35"/>
+      <c r="U306" s="35"/>
+      <c r="V306" s="35"/>
+      <c r="W306" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="F276:F282"/>
+    <mergeCell ref="F233:F236"/>
+    <mergeCell ref="F247:F249"/>
+    <mergeCell ref="F252:F261"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="F268:F269"/>
+    <mergeCell ref="F272:F273"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="F180:F215"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="F222:F226"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="F130:F145"/>
+    <mergeCell ref="F148:F150"/>
+    <mergeCell ref="F153:F172"/>
+    <mergeCell ref="F104:F111"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="F100:F101"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F26:F27"/>
@@ -10283,30 +10465,6 @@
     <mergeCell ref="F58:F62"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F130:F145"/>
-    <mergeCell ref="F148:F150"/>
-    <mergeCell ref="F153:F172"/>
-    <mergeCell ref="F104:F111"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="F180:F215"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="F222:F226"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="F272:F278"/>
-    <mergeCell ref="F233:F236"/>
-    <mergeCell ref="F247:F249"/>
-    <mergeCell ref="F252:F261"/>
-    <mergeCell ref="F264:F265"/>
-    <mergeCell ref="F268:F269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10320,14 +10478,14 @@
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>76</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10345,7 +10503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10358,7 +10518,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -10433,17 +10593,17 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="5"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -10472,15 +10632,15 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="5"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -10546,17 +10706,17 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="B6" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="5"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -10585,15 +10745,15 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="5"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
@@ -10622,15 +10782,15 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="5"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
@@ -10813,17 +10973,17 @@
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="5"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -10852,15 +11012,15 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="5"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -11001,17 +11161,17 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="5"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -11077,17 +11237,17 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="5"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -11116,15 +11276,15 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="5"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
@@ -11190,17 +11350,17 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="5"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
@@ -11229,15 +11389,15 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="5"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -11303,17 +11463,17 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
+      <c r="B26" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="5"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
@@ -11342,15 +11502,15 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="5"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -11379,15 +11539,15 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="5"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -11453,17 +11613,17 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="5"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
@@ -11530,7 +11690,7 @@
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="48"/>
@@ -11759,17 +11919,17 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="5"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -11798,15 +11958,15 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="5"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -11948,17 +12108,17 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
       <c r="K43" s="5"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -11987,15 +12147,15 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
       <c r="K44" s="5"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -12024,15 +12184,15 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
       <c r="K45" s="5"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
@@ -12211,17 +12371,17 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="5"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
@@ -12250,15 +12410,15 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
       <c r="K51" s="5"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
@@ -12287,15 +12447,15 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
       <c r="K52" s="5"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -12324,15 +12484,15 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
       <c r="K53" s="5"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
@@ -12476,17 +12636,17 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
       <c r="K57" s="5"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
@@ -12515,15 +12675,15 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
       <c r="K58" s="5"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -12552,15 +12712,15 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
       <c r="K59" s="5"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
@@ -12626,17 +12786,17 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
       <c r="K61" s="5"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
@@ -12665,15 +12825,15 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="5"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
@@ -12739,17 +12899,17 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
       <c r="K64" s="5"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
@@ -12815,17 +12975,17 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
       <c r="K66" s="5"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
@@ -12854,15 +13014,15 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
       <c r="K67" s="5"/>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
@@ -13425,7 +13585,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="17"/>
       <c r="C82" s="48" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="D82" s="48"/>
       <c r="E82" s="48"/>
@@ -13891,12 +14051,12 @@
       <c r="C94" s="27"/>
       <c r="D94" s="28"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="51" t="s">
+      <c r="F94" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G94" s="52"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="50" t="s">
+      <c r="G94" s="55"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="53" t="s">
         <v>127</v>
       </c>
       <c r="J94" s="48"/>
@@ -13932,10 +14092,10 @@
       <c r="C95" s="30"/>
       <c r="D95" s="31"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="50"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="53"/>
       <c r="J95" s="48"/>
       <c r="K95" s="5"/>
       <c r="L95" s="35"/>
@@ -13974,7 +14134,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="22"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="50"/>
+      <c r="I96" s="53"/>
       <c r="J96" s="48"/>
       <c r="K96" s="5"/>
       <c r="L96" s="35"/>
@@ -14011,7 +14171,7 @@
       <c r="F97" s="24"/>
       <c r="G97" s="12"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="50"/>
+      <c r="I97" s="53"/>
       <c r="J97" s="48"/>
       <c r="K97" s="5"/>
       <c r="L97" s="35"/>
@@ -14050,8 +14210,8 @@
       <c r="F98" s="21"/>
       <c r="G98" s="22"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="50" t="s">
-        <v>158</v>
+      <c r="I98" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="J98" s="48"/>
       <c r="K98" s="5"/>
@@ -14089,7 +14249,7 @@
       <c r="F99" s="24"/>
       <c r="G99" s="12"/>
       <c r="H99" s="25"/>
-      <c r="I99" s="50"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="48"/>
       <c r="K99" s="5"/>
       <c r="L99" s="35"/>
@@ -15229,18 +15389,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B47:J48"/>
-    <mergeCell ref="B50:J53"/>
-    <mergeCell ref="B38:J39"/>
-    <mergeCell ref="B13:J14"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="B23:J24"/>
-    <mergeCell ref="B26:J28"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B6:J8"/>
     <mergeCell ref="B57:J59"/>
     <mergeCell ref="B61:J62"/>
     <mergeCell ref="B64:J64"/>
@@ -15255,6 +15403,18 @@
     <mergeCell ref="C82:J82"/>
     <mergeCell ref="C85:J85"/>
     <mergeCell ref="C88:J88"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B47:J48"/>
+    <mergeCell ref="B50:J53"/>
+    <mergeCell ref="B38:J39"/>
+    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B26:J28"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B6:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15263,7 +15423,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG100"/>
+  <dimension ref="A1:AG104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -15275,21 +15435,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
-      <c r="J1" s="43" t="s">
-        <v>273</v>
+      <c r="J1" s="44" t="s">
+        <v>275</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -15316,15 +15476,15 @@
       <c r="AG1" s="35"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>226</v>
+      <c r="A2" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="39"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="5"/>
@@ -15353,19 +15513,19 @@
       <c r="AG2" s="35"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>185</v>
+      <c r="A3" s="42" t="s">
+        <v>188</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="39"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="J3" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -15392,17 +15552,17 @@
       <c r="AG3" s="35"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>186</v>
+      <c r="A4" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="5"/>
@@ -15433,20 +15593,20 @@
       <c r="AG4" s="35"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>187</v>
+      <c r="A5" s="42" t="s">
+        <v>190</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -15472,19 +15632,19 @@
       <c r="AG5" s="35"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>188</v>
+      <c r="A6" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
       <c r="J6" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -15511,20 +15671,20 @@
       <c r="AG6" s="35"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>190</v>
+      <c r="A7" s="42" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -15550,20 +15710,20 @@
       <c r="AG7" s="35"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>191</v>
+      <c r="A8" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="39"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -15589,21 +15749,21 @@
       <c r="AG8" s="35"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>192</v>
+      <c r="A9" s="42" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="39"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -15630,22 +15790,22 @@
       <c r="AG9" s="35"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>193</v>
+      <c r="A10" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -15671,20 +15831,20 @@
       <c r="AG10" s="35"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>194</v>
+      <c r="A11" s="42" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -15710,15 +15870,15 @@
       <c r="AG11" s="35"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>195</v>
+      <c r="A12" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="5"/>
@@ -15747,17 +15907,17 @@
       <c r="AG12" s="35"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>196</v>
+      <c r="A13" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="5"/>
@@ -15786,19 +15946,19 @@
       <c r="AG13" s="35"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>197</v>
+      <c r="A14" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -15825,15 +15985,15 @@
       <c r="AG14" s="35"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>198</v>
+      <c r="A15" s="42" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
       <c r="J15" s="5"/>
@@ -15864,11 +16024,11 @@
       <c r="AG15" s="35"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>199</v>
+      <c r="A16" s="43" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -15942,17 +16102,17 @@
       <c r="AG17" s="35"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -15981,15 +16141,15 @@
       <c r="AG18" s="35"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>206</v>
+      <c r="A19" s="42" t="s">
+        <v>209</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
@@ -16018,17 +16178,17 @@
       <c r="AG19" s="35"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>207</v>
+      <c r="A20" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -16057,15 +16217,15 @@
       <c r="AG20" s="35"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>189</v>
+      <c r="A21" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
@@ -16094,15 +16254,15 @@
       <c r="AG21" s="35"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>208</v>
+      <c r="A22" s="42" t="s">
+        <v>211</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
@@ -16131,15 +16291,15 @@
       <c r="AG22" s="35"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>209</v>
+      <c r="A23" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="39"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -16168,15 +16328,15 @@
       <c r="AG23" s="35"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>195</v>
+      <c r="A24" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -16205,11 +16365,11 @@
       <c r="AG24" s="35"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>210</v>
+      <c r="A25" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -16279,15 +16439,15 @@
       <c r="AG26" s="35"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="A27" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -16351,17 +16511,17 @@
       <c r="AG28" s="35"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
+      <c r="A29" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
@@ -16390,15 +16550,15 @@
       <c r="AG29" s="35"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>267</v>
+      <c r="A30" s="42" t="s">
+        <v>269</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="39"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -16427,17 +16587,17 @@
       <c r="AG30" s="35"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>268</v>
+      <c r="A31" s="42" t="s">
+        <v>270</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="39"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -16466,8 +16626,8 @@
       <c r="AG31" s="35"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>208</v>
+      <c r="A32" s="43" t="s">
+        <v>211</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>75</v>
@@ -16540,15 +16700,15 @@
       <c r="AG33" s="35"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="A34" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -16612,17 +16772,17 @@
       <c r="AG35" s="35"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
@@ -16651,15 +16811,15 @@
       <c r="AG36" s="35"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>218</v>
+      <c r="A37" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="39"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
@@ -16688,17 +16848,17 @@
       <c r="AG37" s="35"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>219</v>
+      <c r="A38" s="42" t="s">
+        <v>221</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="39"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
@@ -16727,17 +16887,17 @@
       <c r="AG38" s="35"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
+      <c r="A39" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -16766,13 +16926,13 @@
       <c r="AG39" s="35"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -16801,17 +16961,17 @@
       <c r="AG40" s="35"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>221</v>
+      <c r="A41" s="42" t="s">
+        <v>223</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="39"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -16840,15 +17000,15 @@
       <c r="AG41" s="35"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>208</v>
+      <c r="A42" s="42" t="s">
+        <v>211</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="39"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -16877,15 +17037,15 @@
       <c r="AG42" s="35"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>222</v>
+      <c r="A43" s="42" t="s">
+        <v>224</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="39"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -16914,15 +17074,15 @@
       <c r="AG43" s="35"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>223</v>
+      <c r="A44" s="42" t="s">
+        <v>225</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="39"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
@@ -16951,15 +17111,15 @@
       <c r="AG44" s="35"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>224</v>
+      <c r="A45" s="42" t="s">
+        <v>226</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="39"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
@@ -16988,15 +17148,15 @@
       <c r="AG45" s="35"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>225</v>
+      <c r="A46" s="42" t="s">
+        <v>227</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="39"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
@@ -17025,15 +17185,15 @@
       <c r="AG46" s="35"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>195</v>
+      <c r="A47" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="39"/>
+      <c r="G47" s="40"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
@@ -17062,11 +17222,11 @@
       <c r="AG47" s="35"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>210</v>
+      <c r="A48" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -17136,17 +17296,17 @@
       <c r="AG49" s="35"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
+      <c r="A50" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -17175,17 +17335,17 @@
       <c r="AG50" s="35"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
-        <v>218</v>
+      <c r="A51" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
@@ -17214,15 +17374,15 @@
       <c r="AG51" s="35"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>231</v>
+      <c r="A52" s="42" t="s">
+        <v>233</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="39"/>
+      <c r="G52" s="40"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
@@ -17251,15 +17411,15 @@
       <c r="AG52" s="35"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>232</v>
+      <c r="A53" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="39"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
@@ -17288,17 +17448,17 @@
       <c r="AG53" s="35"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
-        <v>233</v>
+      <c r="A54" s="42" t="s">
+        <v>235</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="39"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
@@ -17327,8 +17487,8 @@
       <c r="AG54" s="35"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
-        <v>234</v>
+      <c r="A55" s="43" t="s">
+        <v>236</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -17399,18 +17559,18 @@
       <c r="AG56" s="35"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38" t="s">
-        <v>184</v>
+      <c r="A57" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39" t="s">
+        <v>187</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
@@ -17440,16 +17600,16 @@
       <c r="AG57" s="35"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>218</v>
+      <c r="A58" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="39" t="s">
-        <v>184</v>
+      <c r="G58" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
@@ -17479,20 +17639,20 @@
       <c r="AG58" s="35"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>237</v>
+      <c r="A59" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -17527,11 +17687,11 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -17561,19 +17721,19 @@
       <c r="AG60" s="35"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
+      <c r="A61" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
@@ -17602,17 +17762,17 @@
       <c r="AG61" s="35"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>218</v>
+      <c r="A62" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="39"/>
+      <c r="G62" s="40"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
@@ -17641,17 +17801,17 @@
       <c r="AG62" s="35"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>226</v>
+      <c r="A63" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F63" s="11"/>
-      <c r="G63" s="39"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
@@ -17680,11 +17840,11 @@
       <c r="AG63" s="35"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
-        <v>240</v>
+      <c r="A64" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -17754,15 +17914,19 @@
       <c r="AG65" s="35"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
+      <c r="A66" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
@@ -17791,13 +17955,17 @@
       <c r="AG66" s="35"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="A67" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="40" t="s">
+        <v>187</v>
+      </c>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
@@ -17826,17 +17994,21 @@
       <c r="AG67" s="35"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
+      <c r="A68" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
@@ -17865,15 +18037,13 @@
       <c r="AG68" s="35"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="39"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
@@ -17902,15 +18072,15 @@
       <c r="AG69" s="35"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="39"/>
+      <c r="A70" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
@@ -17939,17 +18109,13 @@
       <c r="AG70" s="35"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="39"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="J71" s="35"/>
@@ -17979,15 +18145,15 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="39"/>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
@@ -18017,17 +18183,15 @@
       <c r="AG72" s="35"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
-      <c r="G73" s="39"/>
+      <c r="G73" s="40"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
@@ -18057,16 +18221,14 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="40"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
@@ -18095,13 +18257,17 @@
       <c r="AG74" s="35"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
+      <c r="A75" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="40"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
       <c r="J75" s="35"/>
@@ -18130,17 +18296,17 @@
       <c r="AG75" s="35"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="38"/>
+      <c r="A76" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="40"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
       <c r="J76" s="35"/>
@@ -18169,15 +18335,17 @@
       <c r="AG76" s="35"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="B77" s="11"/>
+      <c r="A77" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
-      <c r="G77" s="39"/>
+      <c r="G77" s="40"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
       <c r="J77" s="35"/>
@@ -18206,15 +18374,17 @@
       <c r="AG77" s="35"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="39"/>
+      <c r="A78" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35"/>
@@ -18243,17 +18413,13 @@
       <c r="AG78" s="35"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
@@ -18282,13 +18448,17 @@
       <c r="AG79" s="35"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="61"/>
+      <c r="A80" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35"/>
@@ -18317,15 +18487,15 @@
       <c r="AG80" s="35"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
-        <v>257</v>
+      <c r="A81" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
-      <c r="G81" s="39"/>
+      <c r="G81" s="40"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
@@ -18355,14 +18525,14 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="40"/>
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
       <c r="J82" s="35"/>
@@ -18391,13 +18561,17 @@
       <c r="AG82" s="35"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="A83" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
       <c r="J83" s="35"/>
@@ -18426,17 +18600,13 @@
       <c r="AG83" s="35"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="62"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
@@ -18465,15 +18635,15 @@
       <c r="AG84" s="35"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
-        <v>218</v>
+      <c r="A85" s="42" t="s">
+        <v>259</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
-      <c r="G85" s="39"/>
+      <c r="G85" s="40"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="35"/>
@@ -18502,17 +18672,15 @@
       <c r="AG85" s="35"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B86" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="61"/>
+      <c r="A86" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
@@ -18541,13 +18709,13 @@
       <c r="AG86" s="35"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="35"/>
@@ -18576,13 +18744,17 @@
       <c r="AG87" s="35"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
+      <c r="A88" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="39"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="35"/>
@@ -18611,13 +18783,15 @@
       <c r="AG88" s="35"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="A89" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="40"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
       <c r="J89" s="35"/>
@@ -18646,13 +18820,17 @@
       <c r="AG89" s="35"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
+      <c r="A90" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="62"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="35"/>
@@ -18681,13 +18859,13 @@
       <c r="AG90" s="35"/>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="64"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="35"/>
@@ -19030,12 +19208,152 @@
       <c r="AF100" s="35"/>
       <c r="AG100" s="35"/>
     </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="35"/>
+      <c r="W101" s="35"/>
+      <c r="X101" s="35"/>
+      <c r="Y101" s="35"/>
+      <c r="Z101" s="35"/>
+      <c r="AA101" s="35"/>
+      <c r="AB101" s="35"/>
+      <c r="AC101" s="35"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="35"/>
+      <c r="AG101" s="35"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="35"/>
+      <c r="W102" s="35"/>
+      <c r="X102" s="35"/>
+      <c r="Y102" s="35"/>
+      <c r="Z102" s="35"/>
+      <c r="AA102" s="35"/>
+      <c r="AB102" s="35"/>
+      <c r="AC102" s="35"/>
+      <c r="AD102" s="35"/>
+      <c r="AE102" s="35"/>
+      <c r="AF102" s="35"/>
+      <c r="AG102" s="35"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="35"/>
+      <c r="W103" s="35"/>
+      <c r="X103" s="35"/>
+      <c r="Y103" s="35"/>
+      <c r="Z103" s="35"/>
+      <c r="AA103" s="35"/>
+      <c r="AB103" s="35"/>
+      <c r="AC103" s="35"/>
+      <c r="AD103" s="35"/>
+      <c r="AE103" s="35"/>
+      <c r="AF103" s="35"/>
+      <c r="AG103" s="35"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35"/>
+      <c r="V104" s="35"/>
+      <c r="W104" s="35"/>
+      <c r="X104" s="35"/>
+      <c r="Y104" s="35"/>
+      <c r="Z104" s="35"/>
+      <c r="AA104" s="35"/>
+      <c r="AB104" s="35"/>
+      <c r="AC104" s="35"/>
+      <c r="AD104" s="35"/>
+      <c r="AE104" s="35"/>
+      <c r="AF104" s="35"/>
+      <c r="AG104" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="B79:G80"/>
-    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="B83:G84"/>
+    <mergeCell ref="B90:G91"/>
     <mergeCell ref="B39:G40"/>
     <mergeCell ref="A34:G34"/>
   </mergeCells>

--- a/doc/TZ.xlsx
+++ b/doc/TZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ТЗ" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="330">
   <si>
     <t>Главная страница</t>
   </si>
@@ -1224,6 +1224,147 @@
   </si>
   <si>
     <t>Настройка названий языков, доступных системе. Редактируется только администраторами</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>chapter_id</t>
+  </si>
+  <si>
+    <t>chapter_number</t>
+  </si>
+  <si>
+    <t>fragments_count</t>
+  </si>
+  <si>
+    <t>translated_fragments_count</t>
+  </si>
+  <si>
+    <t>chapter_name</t>
+  </si>
+  <si>
+    <t>last_activity</t>
+  </si>
+  <si>
+    <t>Порядковый номер</t>
+  </si>
+  <si>
+    <t>Общее число переведённых фрагментов</t>
+  </si>
+  <si>
+    <t>Общее число фрагментов</t>
+  </si>
+  <si>
+    <t>Дата последней активности</t>
+  </si>
+  <si>
+    <t>fragment_id</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>Фрагменты оригинального текста</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>Варианты переводов</t>
+  </si>
+  <si>
+    <t>translation_id</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_user_from</t>
+  </si>
+  <si>
+    <t>id_user_to</t>
+  </si>
+  <si>
+    <t>date_sending</t>
+  </si>
+  <si>
+    <t>is_readed</t>
+  </si>
+  <si>
+    <t>is_sender_delete</t>
+  </si>
+  <si>
+    <t>is_recipient_delete</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>id_creator</t>
+  </si>
+  <si>
+    <t>sys_message</t>
+  </si>
+  <si>
+    <t>id_recipient</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Пользовательские сообщения</t>
+  </si>
+  <si>
+    <t>Признак прочтения получателем</t>
+  </si>
+  <si>
+    <t>Удалил отправитель</t>
+  </si>
+  <si>
+    <t>Удалил получатель</t>
+  </si>
+  <si>
+    <t>Рассылка</t>
+  </si>
+  <si>
+    <t>Создатель рассылки</t>
+  </si>
+  <si>
+    <t>Группа рассылки</t>
+  </si>
+  <si>
+    <t>Системные сообщения</t>
+  </si>
+  <si>
+    <t>id_distribution_message</t>
+  </si>
+  <si>
+    <t>Получатель</t>
+  </si>
+  <si>
+    <t>Признак прочтения</t>
+  </si>
+  <si>
+    <t>Признак удаления</t>
+  </si>
+  <si>
+    <t>Шаблоны системных сообщения</t>
+  </si>
+  <si>
+    <t>Имя шаблона</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1550,6 +1691,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -2107,7 +2250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2130,10 +2273,10 @@
       <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="12" t="s">
         <v>78</v>
       </c>
@@ -2259,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="48" t="s">
         <v>79</v>
       </c>
       <c r="G5" s="35"/>
@@ -2290,7 +2433,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="47"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
@@ -2384,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="48" t="s">
         <v>156</v>
       </c>
       <c r="G9" s="35"/>
@@ -2415,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35"/>
       <c r="H10" s="9" t="s">
         <v>178</v>
@@ -2506,7 +2649,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="48" t="s">
         <v>155</v>
       </c>
       <c r="G13" s="35"/>
@@ -2537,7 +2680,7 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="47"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="35"/>
       <c r="H14" s="9" t="s">
         <v>179</v>
@@ -2898,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="48" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="35"/>
@@ -2929,7 +3072,7 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="35"/>
       <c r="H27" s="9" t="s">
         <v>181</v>
@@ -3022,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="48" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="35"/>
@@ -3058,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="35"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3143,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="48" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="35"/>
@@ -3176,7 +3319,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="47"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="35"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5">
@@ -3271,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="48" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="35"/>
@@ -3306,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="35"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5">
@@ -3335,7 +3478,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="49"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="35"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5">
@@ -3587,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="48" t="s">
         <v>161</v>
       </c>
       <c r="G49" s="35"/>
@@ -3618,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
@@ -3643,7 +3786,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="46"/>
+      <c r="F51" s="48"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -3668,7 +3811,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="48"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -3693,7 +3836,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="48"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3718,7 +3861,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="48"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -3743,7 +3886,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="47"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -3826,7 +3969,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="48" t="s">
         <v>162</v>
       </c>
       <c r="G58" s="35"/>
@@ -3857,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="48"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -3882,7 +4025,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="46"/>
+      <c r="F60" s="48"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -3907,7 +4050,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="46"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
@@ -3932,7 +4075,7 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="47"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
@@ -4015,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="48" t="s">
         <v>163</v>
       </c>
       <c r="G65" s="35"/>
@@ -4046,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="47"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
@@ -4129,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="48" t="s">
         <v>165</v>
       </c>
       <c r="G69" s="35"/>
@@ -4160,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="11"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="48"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
@@ -4185,7 +4328,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="47"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
@@ -4268,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="50" t="s">
         <v>166</v>
       </c>
       <c r="G74" s="35"/>
@@ -4295,7 +4438,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="48"/>
+      <c r="F75" s="50"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
@@ -4320,7 +4463,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="48"/>
+      <c r="F76" s="50"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
@@ -4345,7 +4488,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="48"/>
+      <c r="F77" s="50"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
@@ -4370,7 +4513,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="48"/>
+      <c r="F78" s="50"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
@@ -4395,7 +4538,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="49"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
@@ -4639,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="46" t="s">
+      <c r="F88" s="48" t="s">
         <v>91</v>
       </c>
       <c r="G88" s="35"/>
@@ -4670,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="48"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
@@ -4695,7 +4838,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="48"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
@@ -4720,7 +4863,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="48"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
@@ -4745,7 +4888,7 @@
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="47"/>
+      <c r="F92" s="49"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
@@ -4828,7 +4971,7 @@
         <v>0.5</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="48" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="35"/>
@@ -4859,7 +5002,7 @@
         <v>0.5</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="48"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
       <c r="I96" s="35"/>
@@ -4884,7 +5027,7 @@
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="47"/>
+      <c r="F97" s="49"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
       <c r="I97" s="35"/>
@@ -4967,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="11"/>
-      <c r="F100" s="46" t="s">
+      <c r="F100" s="48" t="s">
         <v>88</v>
       </c>
       <c r="G100" s="35"/>
@@ -4998,7 +5141,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="12"/>
-      <c r="F101" s="47"/>
+      <c r="F101" s="49"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
@@ -5081,7 +5224,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="11"/>
-      <c r="F104" s="46" t="s">
+      <c r="F104" s="48" t="s">
         <v>143</v>
       </c>
       <c r="G104" s="35"/>
@@ -5112,7 +5255,7 @@
         <v>0.5</v>
       </c>
       <c r="E105" s="11"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="48"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
       <c r="I105" s="35"/>
@@ -5137,7 +5280,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="48"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
       <c r="I106" s="35"/>
@@ -5162,7 +5305,7 @@
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="48"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="35"/>
@@ -5187,7 +5330,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="48"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
@@ -5212,7 +5355,7 @@
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="48"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
       <c r="I109" s="35"/>
@@ -5237,7 +5380,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="46"/>
+      <c r="F110" s="48"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
       <c r="I110" s="35"/>
@@ -5262,7 +5405,7 @@
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="47"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
       <c r="I111" s="35"/>
@@ -5345,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="46" t="s">
+      <c r="F114" s="48" t="s">
         <v>90</v>
       </c>
       <c r="G114" s="35"/>
@@ -5376,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="5"/>
-      <c r="F115" s="46"/>
+      <c r="F115" s="48"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
       <c r="I115" s="35"/>
@@ -5401,7 +5544,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="48"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="35"/>
@@ -5426,7 +5569,7 @@
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="47"/>
+      <c r="F117" s="49"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
       <c r="I117" s="35"/>
@@ -5509,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="11"/>
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="48" t="s">
         <v>256</v>
       </c>
       <c r="G120" s="35"/>
@@ -5540,7 +5683,7 @@
         <v>0.5</v>
       </c>
       <c r="E121" s="15"/>
-      <c r="F121" s="49"/>
+      <c r="F121" s="51"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
@@ -5784,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="11"/>
-      <c r="F130" s="46" t="s">
+      <c r="F130" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G130" s="35"/>
@@ -5815,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="11"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="48"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
       <c r="I131" s="35"/>
@@ -5840,7 +5983,7 @@
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="48"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
@@ -5865,7 +6008,7 @@
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="48"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
@@ -5890,7 +6033,7 @@
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="48"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
@@ -5915,7 +6058,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="48"/>
       <c r="G135" s="35"/>
       <c r="H135" s="35"/>
       <c r="I135" s="35"/>
@@ -5940,7 +6083,7 @@
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="48"/>
       <c r="G136" s="35"/>
       <c r="H136" s="35"/>
       <c r="I136" s="35"/>
@@ -5965,7 +6108,7 @@
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="48"/>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
       <c r="I137" s="35"/>
@@ -5990,7 +6133,7 @@
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="48"/>
       <c r="G138" s="35"/>
       <c r="H138" s="35"/>
       <c r="I138" s="35"/>
@@ -6015,7 +6158,7 @@
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="48"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
@@ -6040,7 +6183,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="48"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
       <c r="I140" s="35"/>
@@ -6065,7 +6208,7 @@
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="48"/>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
       <c r="I141" s="35"/>
@@ -6090,7 +6233,7 @@
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="48"/>
       <c r="G142" s="35"/>
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
@@ -6115,7 +6258,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="48"/>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
@@ -6140,7 +6283,7 @@
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
-      <c r="F144" s="46"/>
+      <c r="F144" s="48"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
@@ -6165,7 +6308,7 @@
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="47"/>
+      <c r="F145" s="49"/>
       <c r="G145" s="35"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
@@ -6248,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="5"/>
-      <c r="F148" s="46" t="s">
+      <c r="F148" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G148" s="35"/>
@@ -6279,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="5"/>
-      <c r="F149" s="46"/>
+      <c r="F149" s="48"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
       <c r="I149" s="35"/>
@@ -6304,7 +6447,7 @@
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
-      <c r="F150" s="47"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
@@ -6387,7 +6530,7 @@
         <v>4</v>
       </c>
       <c r="E153" s="11"/>
-      <c r="F153" s="46" t="s">
+      <c r="F153" s="48" t="s">
         <v>169</v>
       </c>
       <c r="G153" s="35"/>
@@ -6418,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="11"/>
-      <c r="F154" s="46"/>
+      <c r="F154" s="48"/>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
@@ -6443,7 +6586,7 @@
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
-      <c r="F155" s="46"/>
+      <c r="F155" s="48"/>
       <c r="G155" s="35"/>
       <c r="H155" s="35"/>
       <c r="I155" s="35"/>
@@ -6468,7 +6611,7 @@
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
-      <c r="F156" s="46"/>
+      <c r="F156" s="48"/>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
@@ -6493,7 +6636,7 @@
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="46"/>
+      <c r="F157" s="48"/>
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
@@ -6518,7 +6661,7 @@
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
-      <c r="F158" s="46"/>
+      <c r="F158" s="48"/>
       <c r="G158" s="35"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
@@ -6543,7 +6686,7 @@
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
-      <c r="F159" s="46"/>
+      <c r="F159" s="48"/>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
       <c r="I159" s="35"/>
@@ -6568,7 +6711,7 @@
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
-      <c r="F160" s="46"/>
+      <c r="F160" s="48"/>
       <c r="G160" s="35"/>
       <c r="H160" s="35"/>
       <c r="I160" s="35"/>
@@ -6593,7 +6736,7 @@
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
-      <c r="F161" s="46"/>
+      <c r="F161" s="48"/>
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
@@ -6618,7 +6761,7 @@
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
-      <c r="F162" s="46"/>
+      <c r="F162" s="48"/>
       <c r="G162" s="35"/>
       <c r="H162" s="35"/>
       <c r="I162" s="35"/>
@@ -6643,7 +6786,7 @@
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
-      <c r="F163" s="46"/>
+      <c r="F163" s="48"/>
       <c r="G163" s="35"/>
       <c r="H163" s="35"/>
       <c r="I163" s="35"/>
@@ -6668,7 +6811,7 @@
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
-      <c r="F164" s="46"/>
+      <c r="F164" s="48"/>
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="I164" s="35"/>
@@ -6693,7 +6836,7 @@
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
-      <c r="F165" s="46"/>
+      <c r="F165" s="48"/>
       <c r="G165" s="35"/>
       <c r="H165" s="35"/>
       <c r="I165" s="35"/>
@@ -6718,7 +6861,7 @@
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="46"/>
+      <c r="F166" s="48"/>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
@@ -6743,7 +6886,7 @@
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
-      <c r="F167" s="46"/>
+      <c r="F167" s="48"/>
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
       <c r="I167" s="35"/>
@@ -6768,7 +6911,7 @@
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
-      <c r="F168" s="46"/>
+      <c r="F168" s="48"/>
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
@@ -6793,7 +6936,7 @@
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
-      <c r="F169" s="46"/>
+      <c r="F169" s="48"/>
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
       <c r="I169" s="35"/>
@@ -6818,7 +6961,7 @@
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
-      <c r="F170" s="46"/>
+      <c r="F170" s="48"/>
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
@@ -6843,7 +6986,7 @@
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="46"/>
+      <c r="F171" s="48"/>
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
       <c r="I171" s="35"/>
@@ -6868,7 +7011,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
-      <c r="F172" s="47"/>
+      <c r="F172" s="49"/>
       <c r="G172" s="35"/>
       <c r="H172" s="35"/>
       <c r="I172" s="35"/>
@@ -6951,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="11"/>
-      <c r="F175" s="46" t="s">
+      <c r="F175" s="48" t="s">
         <v>170</v>
       </c>
       <c r="G175" s="35"/>
@@ -6982,7 +7125,7 @@
         <v>2</v>
       </c>
       <c r="E176" s="11"/>
-      <c r="F176" s="46"/>
+      <c r="F176" s="48"/>
       <c r="G176" s="35"/>
       <c r="H176" s="35"/>
       <c r="I176" s="35"/>
@@ -7007,7 +7150,7 @@
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
-      <c r="F177" s="47"/>
+      <c r="F177" s="49"/>
       <c r="G177" s="35"/>
       <c r="H177" s="35"/>
       <c r="I177" s="35"/>
@@ -7090,7 +7233,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="11"/>
-      <c r="F180" s="46" t="s">
+      <c r="F180" s="48" t="s">
         <v>129</v>
       </c>
       <c r="G180" s="35"/>
@@ -7121,7 +7264,7 @@
         <v>15</v>
       </c>
       <c r="E181" s="11"/>
-      <c r="F181" s="46"/>
+      <c r="F181" s="48"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
@@ -7146,7 +7289,7 @@
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
-      <c r="F182" s="46"/>
+      <c r="F182" s="48"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
@@ -7171,7 +7314,7 @@
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
-      <c r="F183" s="46"/>
+      <c r="F183" s="48"/>
       <c r="G183" s="35"/>
       <c r="H183" s="35"/>
       <c r="I183" s="35"/>
@@ -7196,7 +7339,7 @@
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
-      <c r="F184" s="46"/>
+      <c r="F184" s="48"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
@@ -7221,7 +7364,7 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="46"/>
+      <c r="F185" s="48"/>
       <c r="G185" s="35"/>
       <c r="H185" s="35"/>
       <c r="I185" s="35"/>
@@ -7246,7 +7389,7 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
-      <c r="F186" s="46"/>
+      <c r="F186" s="48"/>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
       <c r="I186" s="35"/>
@@ -7271,7 +7414,7 @@
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="48"/>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
@@ -7296,7 +7439,7 @@
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
-      <c r="F188" s="46"/>
+      <c r="F188" s="48"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
@@ -7321,7 +7464,7 @@
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="48"/>
       <c r="G189" s="35"/>
       <c r="H189" s="35"/>
       <c r="I189" s="35"/>
@@ -7346,7 +7489,7 @@
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="46"/>
+      <c r="F190" s="48"/>
       <c r="G190" s="35"/>
       <c r="H190" s="35"/>
       <c r="I190" s="35"/>
@@ -7371,7 +7514,7 @@
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
-      <c r="F191" s="46"/>
+      <c r="F191" s="48"/>
       <c r="G191" s="35"/>
       <c r="H191" s="35"/>
       <c r="I191" s="35"/>
@@ -7396,7 +7539,7 @@
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
-      <c r="F192" s="46"/>
+      <c r="F192" s="48"/>
       <c r="G192" s="35"/>
       <c r="H192" s="35"/>
       <c r="I192" s="35"/>
@@ -7421,7 +7564,7 @@
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
-      <c r="F193" s="46"/>
+      <c r="F193" s="48"/>
       <c r="G193" s="35"/>
       <c r="H193" s="35"/>
       <c r="I193" s="35"/>
@@ -7446,7 +7589,7 @@
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
-      <c r="F194" s="46"/>
+      <c r="F194" s="48"/>
       <c r="G194" s="35"/>
       <c r="H194" s="35"/>
       <c r="I194" s="35"/>
@@ -7471,7 +7614,7 @@
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
-      <c r="F195" s="46"/>
+      <c r="F195" s="48"/>
       <c r="G195" s="35"/>
       <c r="H195" s="35"/>
       <c r="I195" s="35"/>
@@ -7496,7 +7639,7 @@
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
-      <c r="F196" s="46"/>
+      <c r="F196" s="48"/>
       <c r="G196" s="35"/>
       <c r="H196" s="35"/>
       <c r="I196" s="35"/>
@@ -7521,7 +7664,7 @@
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
-      <c r="F197" s="46"/>
+      <c r="F197" s="48"/>
       <c r="G197" s="35"/>
       <c r="H197" s="35"/>
       <c r="I197" s="35"/>
@@ -7546,7 +7689,7 @@
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
-      <c r="F198" s="46"/>
+      <c r="F198" s="48"/>
       <c r="G198" s="35"/>
       <c r="H198" s="35"/>
       <c r="I198" s="35"/>
@@ -7571,7 +7714,7 @@
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
-      <c r="F199" s="46"/>
+      <c r="F199" s="48"/>
       <c r="G199" s="35"/>
       <c r="H199" s="35"/>
       <c r="I199" s="35"/>
@@ -7596,7 +7739,7 @@
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
-      <c r="F200" s="46"/>
+      <c r="F200" s="48"/>
       <c r="G200" s="35"/>
       <c r="H200" s="35"/>
       <c r="I200" s="35"/>
@@ -7621,7 +7764,7 @@
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
-      <c r="F201" s="46"/>
+      <c r="F201" s="48"/>
       <c r="G201" s="35"/>
       <c r="H201" s="35"/>
       <c r="I201" s="35"/>
@@ -7646,7 +7789,7 @@
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
-      <c r="F202" s="46"/>
+      <c r="F202" s="48"/>
       <c r="G202" s="35"/>
       <c r="H202" s="35"/>
       <c r="I202" s="35"/>
@@ -7671,7 +7814,7 @@
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
-      <c r="F203" s="46"/>
+      <c r="F203" s="48"/>
       <c r="G203" s="35"/>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
@@ -7696,7 +7839,7 @@
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
-      <c r="F204" s="46"/>
+      <c r="F204" s="48"/>
       <c r="G204" s="35"/>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
@@ -7721,7 +7864,7 @@
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
-      <c r="F205" s="46"/>
+      <c r="F205" s="48"/>
       <c r="G205" s="35"/>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
@@ -7746,7 +7889,7 @@
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
-      <c r="F206" s="46"/>
+      <c r="F206" s="48"/>
       <c r="G206" s="35"/>
       <c r="H206" s="35"/>
       <c r="I206" s="35"/>
@@ -7771,7 +7914,7 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
-      <c r="F207" s="46"/>
+      <c r="F207" s="48"/>
       <c r="G207" s="35"/>
       <c r="H207" s="35"/>
       <c r="I207" s="35"/>
@@ -7796,7 +7939,7 @@
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
-      <c r="F208" s="46"/>
+      <c r="F208" s="48"/>
       <c r="G208" s="35"/>
       <c r="H208" s="35"/>
       <c r="I208" s="35"/>
@@ -7821,7 +7964,7 @@
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
-      <c r="F209" s="46"/>
+      <c r="F209" s="48"/>
       <c r="G209" s="35"/>
       <c r="H209" s="35"/>
       <c r="I209" s="35"/>
@@ -7846,7 +7989,7 @@
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
-      <c r="F210" s="46"/>
+      <c r="F210" s="48"/>
       <c r="G210" s="35"/>
       <c r="H210" s="35"/>
       <c r="I210" s="35"/>
@@ -7871,7 +8014,7 @@
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
-      <c r="F211" s="46"/>
+      <c r="F211" s="48"/>
       <c r="G211" s="35"/>
       <c r="H211" s="35"/>
       <c r="I211" s="35"/>
@@ -7896,7 +8039,7 @@
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
-      <c r="F212" s="46"/>
+      <c r="F212" s="48"/>
       <c r="G212" s="35"/>
       <c r="H212" s="35"/>
       <c r="I212" s="35"/>
@@ -7921,7 +8064,7 @@
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
-      <c r="F213" s="46"/>
+      <c r="F213" s="48"/>
       <c r="G213" s="35"/>
       <c r="H213" s="35"/>
       <c r="I213" s="35"/>
@@ -7946,7 +8089,7 @@
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
-      <c r="F214" s="46"/>
+      <c r="F214" s="48"/>
       <c r="G214" s="35"/>
       <c r="H214" s="35"/>
       <c r="I214" s="35"/>
@@ -7971,7 +8114,7 @@
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
-      <c r="F215" s="47"/>
+      <c r="F215" s="49"/>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
       <c r="I215" s="35"/>
@@ -8054,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="E218" s="11"/>
-      <c r="F218" s="46" t="s">
+      <c r="F218" s="48" t="s">
         <v>128</v>
       </c>
       <c r="G218" s="35"/>
@@ -8081,7 +8224,7 @@
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
-      <c r="F219" s="47"/>
+      <c r="F219" s="49"/>
       <c r="G219" s="35"/>
       <c r="H219" s="35"/>
       <c r="I219" s="35"/>
@@ -8164,7 +8307,7 @@
         <v>3</v>
       </c>
       <c r="E222" s="11"/>
-      <c r="F222" s="46" t="s">
+      <c r="F222" s="48" t="s">
         <v>167</v>
       </c>
       <c r="G222" s="35"/>
@@ -8191,7 +8334,7 @@
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
-      <c r="F223" s="46"/>
+      <c r="F223" s="48"/>
       <c r="G223" s="35"/>
       <c r="H223" s="35"/>
       <c r="I223" s="35"/>
@@ -8216,7 +8359,7 @@
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
-      <c r="F224" s="46"/>
+      <c r="F224" s="48"/>
       <c r="G224" s="35"/>
       <c r="H224" s="35"/>
       <c r="I224" s="35"/>
@@ -8241,7 +8384,7 @@
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
-      <c r="F225" s="46"/>
+      <c r="F225" s="48"/>
       <c r="G225" s="35"/>
       <c r="H225" s="35"/>
       <c r="I225" s="35"/>
@@ -8266,7 +8409,7 @@
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
-      <c r="F226" s="47"/>
+      <c r="F226" s="49"/>
       <c r="G226" s="35"/>
       <c r="H226" s="35"/>
       <c r="I226" s="35"/>
@@ -8349,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="11"/>
-      <c r="F229" s="46" t="s">
+      <c r="F229" s="48" t="s">
         <v>130</v>
       </c>
       <c r="G229" s="35"/>
@@ -8380,7 +8523,7 @@
         <v>0.5</v>
       </c>
       <c r="E230" s="12"/>
-      <c r="F230" s="47"/>
+      <c r="F230" s="49"/>
       <c r="G230" s="35"/>
       <c r="H230" s="35"/>
       <c r="I230" s="35"/>
@@ -8463,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="11"/>
-      <c r="F233" s="46" t="s">
+      <c r="F233" s="48" t="s">
         <v>175</v>
       </c>
       <c r="G233" s="35"/>
@@ -8494,7 +8637,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="11"/>
-      <c r="F234" s="46"/>
+      <c r="F234" s="48"/>
       <c r="G234" s="35"/>
       <c r="H234" s="35"/>
       <c r="I234" s="35"/>
@@ -8519,7 +8662,7 @@
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
-      <c r="F235" s="46"/>
+      <c r="F235" s="48"/>
       <c r="G235" s="35"/>
       <c r="H235" s="35"/>
       <c r="I235" s="35"/>
@@ -8544,7 +8687,7 @@
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
-      <c r="F236" s="49"/>
+      <c r="F236" s="51"/>
       <c r="G236" s="35"/>
       <c r="H236" s="35"/>
       <c r="I236" s="35"/>
@@ -8844,7 +8987,7 @@
         <v>2</v>
       </c>
       <c r="E247" s="11"/>
-      <c r="F247" s="46" t="s">
+      <c r="F247" s="48" t="s">
         <v>140</v>
       </c>
       <c r="G247" s="35"/>
@@ -8875,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="11"/>
-      <c r="F248" s="46"/>
+      <c r="F248" s="48"/>
       <c r="G248" s="35"/>
       <c r="H248" s="35"/>
       <c r="I248" s="35"/>
@@ -8900,7 +9043,7 @@
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
-      <c r="F249" s="47"/>
+      <c r="F249" s="49"/>
       <c r="G249" s="35"/>
       <c r="H249" s="35"/>
       <c r="I249" s="35"/>
@@ -8983,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="E252" s="11"/>
-      <c r="F252" s="46" t="s">
+      <c r="F252" s="48" t="s">
         <v>141</v>
       </c>
       <c r="G252" s="35"/>
@@ -9014,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="11"/>
-      <c r="F253" s="46"/>
+      <c r="F253" s="48"/>
       <c r="G253" s="35"/>
       <c r="H253" s="35"/>
       <c r="I253" s="35"/>
@@ -9039,7 +9182,7 @@
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
-      <c r="F254" s="46"/>
+      <c r="F254" s="48"/>
       <c r="G254" s="35"/>
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
@@ -9064,7 +9207,7 @@
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
-      <c r="F255" s="46"/>
+      <c r="F255" s="48"/>
       <c r="G255" s="35"/>
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
@@ -9089,7 +9232,7 @@
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
-      <c r="F256" s="46"/>
+      <c r="F256" s="48"/>
       <c r="G256" s="35"/>
       <c r="H256" s="35"/>
       <c r="I256" s="35"/>
@@ -9114,7 +9257,7 @@
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
-      <c r="F257" s="46"/>
+      <c r="F257" s="48"/>
       <c r="G257" s="35"/>
       <c r="H257" s="35"/>
       <c r="I257" s="35"/>
@@ -9139,7 +9282,7 @@
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
-      <c r="F258" s="46"/>
+      <c r="F258" s="48"/>
       <c r="G258" s="35"/>
       <c r="H258" s="35"/>
       <c r="I258" s="35"/>
@@ -9164,7 +9307,7 @@
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
-      <c r="F259" s="46"/>
+      <c r="F259" s="48"/>
       <c r="G259" s="35"/>
       <c r="H259" s="35"/>
       <c r="I259" s="35"/>
@@ -9189,7 +9332,7 @@
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
-      <c r="F260" s="46"/>
+      <c r="F260" s="48"/>
       <c r="G260" s="35"/>
       <c r="H260" s="35"/>
       <c r="I260" s="35"/>
@@ -9214,7 +9357,7 @@
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
-      <c r="F261" s="47"/>
+      <c r="F261" s="49"/>
       <c r="G261" s="35"/>
       <c r="H261" s="35"/>
       <c r="I261" s="35"/>
@@ -9297,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="11"/>
-      <c r="F264" s="46" t="s">
+      <c r="F264" s="48" t="s">
         <v>142</v>
       </c>
       <c r="G264" s="35"/>
@@ -9328,7 +9471,7 @@
         <v>0.5</v>
       </c>
       <c r="E265" s="12"/>
-      <c r="F265" s="47"/>
+      <c r="F265" s="49"/>
       <c r="G265" s="35"/>
       <c r="H265" s="35"/>
       <c r="I265" s="35"/>
@@ -9411,7 +9554,7 @@
         <v>0.5</v>
       </c>
       <c r="E268" s="11"/>
-      <c r="F268" s="46" t="s">
+      <c r="F268" s="48" t="s">
         <v>144</v>
       </c>
       <c r="G268" s="35"/>
@@ -9442,7 +9585,7 @@
         <v>0.5</v>
       </c>
       <c r="E269" s="12"/>
-      <c r="F269" s="47"/>
+      <c r="F269" s="49"/>
       <c r="G269" s="35"/>
       <c r="H269" s="35"/>
       <c r="I269" s="35"/>
@@ -9525,7 +9668,7 @@
         <v>0.5</v>
       </c>
       <c r="E272" s="11"/>
-      <c r="F272" s="46" t="s">
+      <c r="F272" s="48" t="s">
         <v>282</v>
       </c>
       <c r="G272" s="35"/>
@@ -9556,7 +9699,7 @@
         <v>0.5</v>
       </c>
       <c r="E273" s="12"/>
-      <c r="F273" s="47"/>
+      <c r="F273" s="49"/>
       <c r="G273" s="35"/>
       <c r="H273" s="35"/>
       <c r="I273" s="35"/>
@@ -9639,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="E276" s="11"/>
-      <c r="F276" s="46" t="s">
+      <c r="F276" s="48" t="s">
         <v>174</v>
       </c>
       <c r="G276" s="35"/>
@@ -9670,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="E277" s="11"/>
-      <c r="F277" s="46"/>
+      <c r="F277" s="48"/>
       <c r="G277" s="35"/>
       <c r="H277" s="35"/>
       <c r="I277" s="35"/>
@@ -9695,7 +9838,7 @@
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
-      <c r="F278" s="46"/>
+      <c r="F278" s="48"/>
       <c r="G278" s="35"/>
       <c r="H278" s="35"/>
       <c r="I278" s="35"/>
@@ -9720,7 +9863,7 @@
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
-      <c r="F279" s="46"/>
+      <c r="F279" s="48"/>
       <c r="G279" s="35"/>
       <c r="H279" s="35"/>
       <c r="I279" s="35"/>
@@ -9745,7 +9888,7 @@
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
-      <c r="F280" s="46"/>
+      <c r="F280" s="48"/>
       <c r="G280" s="35"/>
       <c r="H280" s="35"/>
       <c r="I280" s="35"/>
@@ -9770,7 +9913,7 @@
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
-      <c r="F281" s="46"/>
+      <c r="F281" s="48"/>
       <c r="G281" s="35"/>
       <c r="H281" s="35"/>
       <c r="I281" s="35"/>
@@ -9795,7 +9938,7 @@
       <c r="C282" s="15"/>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="F282" s="49"/>
+      <c r="F282" s="51"/>
       <c r="G282" s="35"/>
       <c r="H282" s="35"/>
       <c r="I282" s="35"/>
@@ -10593,17 +10736,17 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="5"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -10632,15 +10775,15 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="5"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -10706,17 +10849,17 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="5"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -10745,15 +10888,15 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="5"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
@@ -10782,15 +10925,15 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="5"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
@@ -10973,17 +11116,17 @@
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="5"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -11012,15 +11155,15 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="5"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -11161,17 +11304,17 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="5"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -11237,17 +11380,17 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="5"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -11276,15 +11419,15 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="5"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
@@ -11350,17 +11493,17 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="5"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
@@ -11389,15 +11532,15 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="5"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -11463,17 +11606,17 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="5"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
@@ -11502,15 +11645,15 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="5"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -11539,15 +11682,15 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="5"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -11613,17 +11756,17 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="5"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
@@ -11689,17 +11832,17 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="5"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
@@ -11919,17 +12062,17 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="5"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -11958,15 +12101,15 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="5"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -12108,17 +12251,17 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="5"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -12147,15 +12290,15 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="5"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -12184,15 +12327,15 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="5"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
@@ -12258,17 +12401,17 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="5"/>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -12297,15 +12440,15 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
       <c r="K48" s="5"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -12371,17 +12514,17 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="5"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
@@ -12410,15 +12553,15 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="5"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
@@ -12447,15 +12590,15 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="5"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -12484,15 +12627,15 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="5"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
@@ -12636,17 +12779,17 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="5"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
@@ -12675,15 +12818,15 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="5"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -12712,15 +12855,15 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="5"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
@@ -12786,17 +12929,17 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="5"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
@@ -12825,15 +12968,15 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="5"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
@@ -12899,17 +13042,17 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="5"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
@@ -12975,17 +13118,17 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="5"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
@@ -13014,15 +13157,15 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="5"/>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
@@ -13088,17 +13231,17 @@
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
       <c r="K69" s="5"/>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
@@ -13127,15 +13270,15 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
       <c r="K70" s="5"/>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
@@ -13201,17 +13344,17 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="5"/>
       <c r="L72" s="35"/>
       <c r="M72" s="35"/>
@@ -13240,15 +13383,15 @@
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
       <c r="K73" s="5"/>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
@@ -13432,16 +13575,16 @@
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="17"/>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
       <c r="K78" s="5"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
@@ -13471,14 +13614,14 @@
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
       <c r="K79" s="5"/>
       <c r="L79" s="35"/>
       <c r="M79" s="35"/>
@@ -13584,16 +13727,16 @@
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
       <c r="K82" s="5"/>
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
@@ -13699,16 +13842,16 @@
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="17"/>
-      <c r="C85" s="48" t="s">
+      <c r="C85" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
       <c r="K85" s="5"/>
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
@@ -13814,16 +13957,16 @@
     <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="50"/>
       <c r="K88" s="5"/>
       <c r="L88" s="35"/>
       <c r="M88" s="35"/>
@@ -14051,15 +14194,15 @@
       <c r="C94" s="27"/>
       <c r="D94" s="28"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="G94" s="55"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="53" t="s">
+      <c r="G94" s="57"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="J94" s="48"/>
+      <c r="J94" s="50"/>
       <c r="K94" s="5"/>
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
@@ -14092,11 +14235,11 @@
       <c r="C95" s="30"/>
       <c r="D95" s="31"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="48"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="50"/>
       <c r="K95" s="5"/>
       <c r="L95" s="35"/>
       <c r="M95" s="35"/>
@@ -14134,8 +14277,8 @@
       <c r="F96" s="21"/>
       <c r="G96" s="22"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="48"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="50"/>
       <c r="K96" s="5"/>
       <c r="L96" s="35"/>
       <c r="M96" s="35"/>
@@ -14171,8 +14314,8 @@
       <c r="F97" s="24"/>
       <c r="G97" s="12"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="48"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="50"/>
       <c r="K97" s="5"/>
       <c r="L97" s="35"/>
       <c r="M97" s="35"/>
@@ -14210,10 +14353,10 @@
       <c r="F98" s="21"/>
       <c r="G98" s="22"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="53" t="s">
+      <c r="I98" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="J98" s="48"/>
+      <c r="J98" s="50"/>
       <c r="K98" s="5"/>
       <c r="L98" s="35"/>
       <c r="M98" s="35"/>
@@ -14249,8 +14392,8 @@
       <c r="F99" s="24"/>
       <c r="G99" s="12"/>
       <c r="H99" s="25"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="48"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="50"/>
       <c r="K99" s="5"/>
       <c r="L99" s="35"/>
       <c r="M99" s="35"/>
@@ -15423,15 +15566,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG104"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:AG205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -16439,15 +16581,15 @@
       <c r="AG26" s="35"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -16700,15 +16842,15 @@
       <c r="AG33" s="35"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
@@ -16773,10 +16915,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -16812,7 +16954,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -16849,11 +16991,9 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>230</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -16888,16 +17028,14 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+        <v>304</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -16926,13 +17064,15 @@
       <c r="AG39" s="35"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
+      <c r="A40" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -16962,11 +17102,9 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>231</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -17001,9 +17139,11 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>317</v>
+      </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -17038,9 +17178,11 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" s="11"/>
+        <v>307</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>318</v>
+      </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -17074,15 +17216,17 @@
       <c r="AG43" s="35"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="40"/>
+      <c r="A44" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
@@ -17111,15 +17255,13 @@
       <c r="AG44" s="35"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="40"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
@@ -17148,15 +17290,17 @@
       <c r="AG45" s="35"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="40"/>
+      <c r="A46" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
@@ -17186,7 +17330,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -17222,17 +17366,15 @@
       <c r="AG47" s="35"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
@@ -17261,13 +17403,15 @@
       <c r="AG48" s="35"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
       <c r="J49" s="35"/>
@@ -17296,17 +17440,15 @@
       <c r="AG49" s="35"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
+      <c r="A50" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -17336,10 +17478,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -17374,15 +17516,17 @@
       <c r="AG51" s="35"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="40"/>
+      <c r="A52" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
@@ -17411,15 +17555,13 @@
       <c r="AG52" s="35"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="40"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
@@ -17448,17 +17590,17 @@
       <c r="AG53" s="35"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="40"/>
+      <c r="A54" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
@@ -17487,15 +17629,15 @@
       <c r="AG54" s="35"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="25"/>
+      <c r="A55" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
@@ -17524,13 +17666,15 @@
       <c r="AG55" s="35"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="A56" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
@@ -17559,19 +17703,17 @@
       <c r="AG56" s="35"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39" t="s">
-        <v>187</v>
-      </c>
+      <c r="A57" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="40"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
@@ -17601,16 +17743,16 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="40" t="s">
-        <v>187</v>
-      </c>
+      <c r="G58" s="40"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="35"/>
@@ -17640,20 +17782,16 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="12" t="s">
-        <v>187</v>
-      </c>
+      <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="G59" s="25"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="35"/>
@@ -17686,13 +17824,9 @@
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
-      <c r="E60" s="35" t="s">
-        <v>187</v>
-      </c>
+      <c r="E60" s="35"/>
       <c r="F60" s="35"/>
-      <c r="G60" s="35" t="s">
-        <v>187</v>
-      </c>
+      <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
@@ -17722,16 +17856,14 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
-      <c r="E61" s="38" t="s">
-        <v>187</v>
-      </c>
+      <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="39"/>
       <c r="H61" s="35"/>
@@ -17763,14 +17895,12 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>187</v>
-      </c>
+      <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="40"/>
       <c r="H62" s="35"/>
@@ -17802,14 +17932,14 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B63" s="11"/>
+        <v>189</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>187</v>
-      </c>
+      <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="40"/>
       <c r="H63" s="35"/>
@@ -17841,11 +17971,9 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -17914,19 +18042,15 @@
       <c r="AG65" s="35"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39" t="s">
-        <v>187</v>
-      </c>
+      <c r="A66" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
@@ -17955,17 +18079,13 @@
       <c r="AG66" s="35"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="40" t="s">
-        <v>187</v>
-      </c>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
@@ -17994,21 +18114,17 @@
       <c r="AG67" s="35"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="A68" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
@@ -18037,13 +18153,15 @@
       <c r="AG68" s="35"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
+      <c r="A69" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="40"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
@@ -18072,15 +18190,17 @@
       <c r="AG69" s="35"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
+      <c r="A70" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="40"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
@@ -18109,13 +18229,17 @@
       <c r="AG70" s="35"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
+      <c r="A71" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="64"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="J71" s="35"/>
@@ -18144,17 +18268,13 @@
       <c r="AG71" s="35"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="39"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
       <c r="J72" s="35"/>
@@ -18184,9 +18304,11 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="B73" s="11"/>
+        <v>223</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -18221,7 +18343,7 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -18258,11 +18380,9 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>252</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -18297,11 +18417,9 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -18336,11 +18454,9 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>254</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -18374,17 +18490,15 @@
       <c r="AG77" s="35"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="25"/>
+      <c r="A78" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="40"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35"/>
@@ -18413,13 +18527,15 @@
       <c r="AG78" s="35"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
+      <c r="A79" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="40"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
@@ -18448,17 +18564,17 @@
       <c r="AG79" s="35"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="39"/>
+      <c r="A80" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35"/>
@@ -18487,15 +18603,13 @@
       <c r="AG80" s="35"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="40"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
@@ -18524,15 +18638,17 @@
       <c r="AG81" s="35"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="40"/>
+      <c r="A82" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
       <c r="J82" s="35"/>
@@ -18562,16 +18678,16 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="40"/>
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
       <c r="J83" s="35"/>
@@ -18600,13 +18716,15 @@
       <c r="AG83" s="35"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="62"/>
+      <c r="A84" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="40"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
@@ -18636,7 +18754,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -18672,15 +18790,17 @@
       <c r="AG85" s="35"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="25"/>
+      <c r="A86" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="40"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
@@ -18709,13 +18829,15 @@
       <c r="AG86" s="35"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
+      <c r="A87" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="25"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="35"/>
@@ -18744,17 +18866,13 @@
       <c r="AG87" s="35"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="39"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="35"/>
@@ -18783,15 +18901,19 @@
       <c r="AG88" s="35"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="40"/>
+      <c r="A89" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
       <c r="J89" s="35"/>
@@ -18821,16 +18943,16 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B90" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="40" t="s">
+        <v>187</v>
+      </c>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="35"/>
@@ -18859,13 +18981,21 @@
       <c r="AG90" s="35"/>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="64"/>
+      <c r="A91" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="35"/>
@@ -18929,13 +19059,19 @@
       <c r="AG92" s="35"/>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
+      <c r="A93" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
       <c r="J93" s="35"/>
@@ -18964,13 +19100,17 @@
       <c r="AG93" s="35"/>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
+      <c r="A94" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="40"/>
       <c r="H94" s="35"/>
       <c r="I94" s="35"/>
       <c r="J94" s="35"/>
@@ -18999,13 +19139,17 @@
       <c r="AG94" s="35"/>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="A95" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="40"/>
       <c r="H95" s="35"/>
       <c r="I95" s="35"/>
       <c r="J95" s="35"/>
@@ -19034,13 +19178,17 @@
       <c r="AG95" s="35"/>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
+      <c r="A96" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="25"/>
       <c r="H96" s="35"/>
       <c r="I96" s="35"/>
       <c r="J96" s="35"/>
@@ -19104,13 +19252,19 @@
       <c r="AG97" s="35"/>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="A98" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F98" s="38"/>
+      <c r="G98" s="39"/>
       <c r="H98" s="35"/>
       <c r="I98" s="35"/>
       <c r="J98" s="35"/>
@@ -19139,13 +19293,17 @@
       <c r="AG98" s="35"/>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
+      <c r="A99" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
@@ -19174,13 +19332,15 @@
       <c r="AG99" s="35"/>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
+      <c r="A100" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="45"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="40"/>
       <c r="H100" s="35"/>
       <c r="I100" s="35"/>
       <c r="J100" s="35"/>
@@ -19209,13 +19369,17 @@
       <c r="AG100" s="35"/>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
+      <c r="A101" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="40"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
       <c r="J101" s="35"/>
@@ -19244,13 +19408,17 @@
       <c r="AG101" s="35"/>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
+      <c r="A102" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="40"/>
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
       <c r="J102" s="35"/>
@@ -19279,13 +19447,17 @@
       <c r="AG102" s="35"/>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
+      <c r="A103" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="40"/>
       <c r="H103" s="35"/>
       <c r="I103" s="35"/>
       <c r="J103" s="35"/>
@@ -19314,13 +19486,15 @@
       <c r="AG103" s="35"/>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
+      <c r="A104" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B104" s="45"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="40"/>
       <c r="H104" s="35"/>
       <c r="I104" s="35"/>
       <c r="J104" s="35"/>
@@ -19348,13 +19522,2628 @@
       <c r="AF104" s="35"/>
       <c r="AG104" s="35"/>
     </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="35"/>
+      <c r="U105" s="35"/>
+      <c r="V105" s="35"/>
+      <c r="W105" s="35"/>
+      <c r="X105" s="35"/>
+      <c r="Y105" s="35"/>
+      <c r="Z105" s="35"/>
+      <c r="AA105" s="35"/>
+      <c r="AB105" s="35"/>
+      <c r="AC105" s="35"/>
+      <c r="AD105" s="35"/>
+      <c r="AE105" s="35"/>
+      <c r="AF105" s="35"/>
+      <c r="AG105" s="35"/>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+      <c r="N106" s="35"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="35"/>
+      <c r="R106" s="35"/>
+      <c r="S106" s="35"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35"/>
+      <c r="V106" s="35"/>
+      <c r="W106" s="35"/>
+      <c r="X106" s="35"/>
+      <c r="Y106" s="35"/>
+      <c r="Z106" s="35"/>
+      <c r="AA106" s="35"/>
+      <c r="AB106" s="35"/>
+      <c r="AC106" s="35"/>
+      <c r="AD106" s="35"/>
+      <c r="AE106" s="35"/>
+      <c r="AF106" s="35"/>
+      <c r="AG106" s="35"/>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
+      <c r="N107" s="35"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
+      <c r="Q107" s="35"/>
+      <c r="R107" s="35"/>
+      <c r="S107" s="35"/>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="35"/>
+      <c r="W107" s="35"/>
+      <c r="X107" s="35"/>
+      <c r="Y107" s="35"/>
+      <c r="Z107" s="35"/>
+      <c r="AA107" s="35"/>
+      <c r="AB107" s="35"/>
+      <c r="AC107" s="35"/>
+      <c r="AD107" s="35"/>
+      <c r="AE107" s="35"/>
+      <c r="AF107" s="35"/>
+      <c r="AG107" s="35"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" s="21"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F108" s="22"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35"/>
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="35"/>
+      <c r="AA108" s="35"/>
+      <c r="AB108" s="35"/>
+      <c r="AC108" s="35"/>
+      <c r="AD108" s="35"/>
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="35"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="45"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
+      <c r="N109" s="35"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="35"/>
+      <c r="W109" s="35"/>
+      <c r="X109" s="35"/>
+      <c r="Y109" s="35"/>
+      <c r="Z109" s="35"/>
+      <c r="AA109" s="35"/>
+      <c r="AB109" s="35"/>
+      <c r="AC109" s="35"/>
+      <c r="AD109" s="35"/>
+      <c r="AE109" s="35"/>
+      <c r="AF109" s="35"/>
+      <c r="AG109" s="35"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="35"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="35"/>
+      <c r="W110" s="35"/>
+      <c r="X110" s="35"/>
+      <c r="Y110" s="35"/>
+      <c r="Z110" s="35"/>
+      <c r="AA110" s="35"/>
+      <c r="AB110" s="35"/>
+      <c r="AC110" s="35"/>
+      <c r="AD110" s="35"/>
+      <c r="AE110" s="35"/>
+      <c r="AF110" s="35"/>
+      <c r="AG110" s="35"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="35"/>
+      <c r="Q111" s="35"/>
+      <c r="R111" s="35"/>
+      <c r="S111" s="35"/>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="35"/>
+      <c r="W111" s="35"/>
+      <c r="X111" s="35"/>
+      <c r="Y111" s="35"/>
+      <c r="Z111" s="35"/>
+      <c r="AA111" s="35"/>
+      <c r="AB111" s="35"/>
+      <c r="AC111" s="35"/>
+      <c r="AD111" s="35"/>
+      <c r="AE111" s="35"/>
+      <c r="AF111" s="35"/>
+      <c r="AG111" s="35"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="35"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="35"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+      <c r="Y112" s="35"/>
+      <c r="Z112" s="35"/>
+      <c r="AA112" s="35"/>
+      <c r="AB112" s="35"/>
+      <c r="AC112" s="35"/>
+      <c r="AD112" s="35"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="35"/>
+      <c r="AG112" s="35"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A113" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" s="45"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="35"/>
+      <c r="O113" s="35"/>
+      <c r="P113" s="35"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="35"/>
+      <c r="W113" s="35"/>
+      <c r="X113" s="35"/>
+      <c r="Y113" s="35"/>
+      <c r="Z113" s="35"/>
+      <c r="AA113" s="35"/>
+      <c r="AB113" s="35"/>
+      <c r="AC113" s="35"/>
+      <c r="AD113" s="35"/>
+      <c r="AE113" s="35"/>
+      <c r="AF113" s="35"/>
+      <c r="AG113" s="35"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A114" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="35"/>
+      <c r="L114" s="35"/>
+      <c r="M114" s="35"/>
+      <c r="N114" s="35"/>
+      <c r="O114" s="35"/>
+      <c r="P114" s="35"/>
+      <c r="Q114" s="35"/>
+      <c r="R114" s="35"/>
+      <c r="S114" s="35"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="35"/>
+      <c r="W114" s="35"/>
+      <c r="X114" s="35"/>
+      <c r="Y114" s="35"/>
+      <c r="Z114" s="35"/>
+      <c r="AA114" s="35"/>
+      <c r="AB114" s="35"/>
+      <c r="AC114" s="35"/>
+      <c r="AD114" s="35"/>
+      <c r="AE114" s="35"/>
+      <c r="AF114" s="35"/>
+      <c r="AG114" s="35"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
+      <c r="N115" s="35"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="35"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="35"/>
+      <c r="W115" s="35"/>
+      <c r="X115" s="35"/>
+      <c r="Y115" s="35"/>
+      <c r="Z115" s="35"/>
+      <c r="AA115" s="35"/>
+      <c r="AB115" s="35"/>
+      <c r="AC115" s="35"/>
+      <c r="AD115" s="35"/>
+      <c r="AE115" s="35"/>
+      <c r="AF115" s="35"/>
+      <c r="AG115" s="35"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="35"/>
+      <c r="N116" s="35"/>
+      <c r="O116" s="35"/>
+      <c r="P116" s="35"/>
+      <c r="Q116" s="35"/>
+      <c r="R116" s="35"/>
+      <c r="S116" s="35"/>
+      <c r="T116" s="35"/>
+      <c r="U116" s="35"/>
+      <c r="V116" s="35"/>
+      <c r="W116" s="35"/>
+      <c r="X116" s="35"/>
+      <c r="Y116" s="35"/>
+      <c r="Z116" s="35"/>
+      <c r="AA116" s="35"/>
+      <c r="AB116" s="35"/>
+      <c r="AC116" s="35"/>
+      <c r="AD116" s="35"/>
+      <c r="AE116" s="35"/>
+      <c r="AF116" s="35"/>
+      <c r="AG116" s="35"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="35"/>
+      <c r="P117" s="35"/>
+      <c r="Q117" s="35"/>
+      <c r="R117" s="35"/>
+      <c r="S117" s="35"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="35"/>
+      <c r="W117" s="35"/>
+      <c r="X117" s="35"/>
+      <c r="Y117" s="35"/>
+      <c r="Z117" s="35"/>
+      <c r="AA117" s="35"/>
+      <c r="AB117" s="35"/>
+      <c r="AC117" s="35"/>
+      <c r="AD117" s="35"/>
+      <c r="AE117" s="35"/>
+      <c r="AF117" s="35"/>
+      <c r="AG117" s="35"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="35"/>
+      <c r="N118" s="35"/>
+      <c r="O118" s="35"/>
+      <c r="P118" s="35"/>
+      <c r="Q118" s="35"/>
+      <c r="R118" s="35"/>
+      <c r="S118" s="35"/>
+      <c r="T118" s="35"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="35"/>
+      <c r="W118" s="35"/>
+      <c r="X118" s="35"/>
+      <c r="Y118" s="35"/>
+      <c r="Z118" s="35"/>
+      <c r="AA118" s="35"/>
+      <c r="AB118" s="35"/>
+      <c r="AC118" s="35"/>
+      <c r="AD118" s="35"/>
+      <c r="AE118" s="35"/>
+      <c r="AF118" s="35"/>
+      <c r="AG118" s="35"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
+      <c r="Q119" s="35"/>
+      <c r="R119" s="35"/>
+      <c r="S119" s="35"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
+      <c r="V119" s="35"/>
+      <c r="W119" s="35"/>
+      <c r="X119" s="35"/>
+      <c r="Y119" s="35"/>
+      <c r="Z119" s="35"/>
+      <c r="AA119" s="35"/>
+      <c r="AB119" s="35"/>
+      <c r="AC119" s="35"/>
+      <c r="AD119" s="35"/>
+      <c r="AE119" s="35"/>
+      <c r="AF119" s="35"/>
+      <c r="AG119" s="35"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A120" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
+      <c r="N120" s="35"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="35"/>
+      <c r="Q120" s="35"/>
+      <c r="R120" s="35"/>
+      <c r="S120" s="35"/>
+      <c r="T120" s="35"/>
+      <c r="U120" s="35"/>
+      <c r="V120" s="35"/>
+      <c r="W120" s="35"/>
+      <c r="X120" s="35"/>
+      <c r="Y120" s="35"/>
+      <c r="Z120" s="35"/>
+      <c r="AA120" s="35"/>
+      <c r="AB120" s="35"/>
+      <c r="AC120" s="35"/>
+      <c r="AD120" s="35"/>
+      <c r="AE120" s="35"/>
+      <c r="AF120" s="35"/>
+      <c r="AG120" s="35"/>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="35"/>
+      <c r="K121" s="35"/>
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="35"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
+      <c r="Q121" s="35"/>
+      <c r="R121" s="35"/>
+      <c r="S121" s="35"/>
+      <c r="T121" s="35"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="35"/>
+      <c r="W121" s="35"/>
+      <c r="X121" s="35"/>
+      <c r="Y121" s="35"/>
+      <c r="Z121" s="35"/>
+      <c r="AA121" s="35"/>
+      <c r="AB121" s="35"/>
+      <c r="AC121" s="35"/>
+      <c r="AD121" s="35"/>
+      <c r="AE121" s="35"/>
+      <c r="AF121" s="35"/>
+      <c r="AG121" s="35"/>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A122" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="35"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="35"/>
+      <c r="W122" s="35"/>
+      <c r="X122" s="35"/>
+      <c r="Y122" s="35"/>
+      <c r="Z122" s="35"/>
+      <c r="AA122" s="35"/>
+      <c r="AB122" s="35"/>
+      <c r="AC122" s="35"/>
+      <c r="AD122" s="35"/>
+      <c r="AE122" s="35"/>
+      <c r="AF122" s="35"/>
+      <c r="AG122" s="35"/>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35"/>
+      <c r="R123" s="35"/>
+      <c r="S123" s="35"/>
+      <c r="T123" s="35"/>
+      <c r="U123" s="35"/>
+      <c r="V123" s="35"/>
+      <c r="W123" s="35"/>
+      <c r="X123" s="35"/>
+      <c r="Y123" s="35"/>
+      <c r="Z123" s="35"/>
+      <c r="AA123" s="35"/>
+      <c r="AB123" s="35"/>
+      <c r="AC123" s="35"/>
+      <c r="AD123" s="35"/>
+      <c r="AE123" s="35"/>
+      <c r="AF123" s="35"/>
+      <c r="AG123" s="35"/>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="35"/>
+      <c r="W124" s="35"/>
+      <c r="X124" s="35"/>
+      <c r="Y124" s="35"/>
+      <c r="Z124" s="35"/>
+      <c r="AA124" s="35"/>
+      <c r="AB124" s="35"/>
+      <c r="AC124" s="35"/>
+      <c r="AD124" s="35"/>
+      <c r="AE124" s="35"/>
+      <c r="AF124" s="35"/>
+      <c r="AG124" s="35"/>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="35"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
+      <c r="S125" s="35"/>
+      <c r="T125" s="35"/>
+      <c r="U125" s="35"/>
+      <c r="V125" s="35"/>
+      <c r="W125" s="35"/>
+      <c r="X125" s="35"/>
+      <c r="Y125" s="35"/>
+      <c r="Z125" s="35"/>
+      <c r="AA125" s="35"/>
+      <c r="AB125" s="35"/>
+      <c r="AC125" s="35"/>
+      <c r="AD125" s="35"/>
+      <c r="AE125" s="35"/>
+      <c r="AF125" s="35"/>
+      <c r="AG125" s="35"/>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="35"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="35"/>
+      <c r="X126" s="35"/>
+      <c r="Y126" s="35"/>
+      <c r="Z126" s="35"/>
+      <c r="AA126" s="35"/>
+      <c r="AB126" s="35"/>
+      <c r="AC126" s="35"/>
+      <c r="AD126" s="35"/>
+      <c r="AE126" s="35"/>
+      <c r="AF126" s="35"/>
+      <c r="AG126" s="35"/>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="35"/>
+      <c r="Q127" s="35"/>
+      <c r="R127" s="35"/>
+      <c r="S127" s="35"/>
+      <c r="T127" s="35"/>
+      <c r="U127" s="35"/>
+      <c r="V127" s="35"/>
+      <c r="W127" s="35"/>
+      <c r="X127" s="35"/>
+      <c r="Y127" s="35"/>
+      <c r="Z127" s="35"/>
+      <c r="AA127" s="35"/>
+      <c r="AB127" s="35"/>
+      <c r="AC127" s="35"/>
+      <c r="AD127" s="35"/>
+      <c r="AE127" s="35"/>
+      <c r="AF127" s="35"/>
+      <c r="AG127" s="35"/>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="35"/>
+      <c r="O128" s="35"/>
+      <c r="P128" s="35"/>
+      <c r="Q128" s="35"/>
+      <c r="R128" s="35"/>
+      <c r="S128" s="35"/>
+      <c r="T128" s="35"/>
+      <c r="U128" s="35"/>
+      <c r="V128" s="35"/>
+      <c r="W128" s="35"/>
+      <c r="X128" s="35"/>
+      <c r="Y128" s="35"/>
+      <c r="Z128" s="35"/>
+      <c r="AA128" s="35"/>
+      <c r="AB128" s="35"/>
+      <c r="AC128" s="35"/>
+      <c r="AD128" s="35"/>
+      <c r="AE128" s="35"/>
+      <c r="AF128" s="35"/>
+      <c r="AG128" s="35"/>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A129" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35"/>
+      <c r="Q129" s="35"/>
+      <c r="R129" s="35"/>
+      <c r="S129" s="35"/>
+      <c r="T129" s="35"/>
+      <c r="U129" s="35"/>
+      <c r="V129" s="35"/>
+      <c r="W129" s="35"/>
+      <c r="X129" s="35"/>
+      <c r="Y129" s="35"/>
+      <c r="Z129" s="35"/>
+      <c r="AA129" s="35"/>
+      <c r="AB129" s="35"/>
+      <c r="AC129" s="35"/>
+      <c r="AD129" s="35"/>
+      <c r="AE129" s="35"/>
+      <c r="AF129" s="35"/>
+      <c r="AG129" s="35"/>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="35"/>
+      <c r="S130" s="35"/>
+      <c r="T130" s="35"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="35"/>
+      <c r="W130" s="35"/>
+      <c r="X130" s="35"/>
+      <c r="Y130" s="35"/>
+      <c r="Z130" s="35"/>
+      <c r="AA130" s="35"/>
+      <c r="AB130" s="35"/>
+      <c r="AC130" s="35"/>
+      <c r="AD130" s="35"/>
+      <c r="AE130" s="35"/>
+      <c r="AF130" s="35"/>
+      <c r="AG130" s="35"/>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A131" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="35"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="35"/>
+      <c r="Q131" s="35"/>
+      <c r="R131" s="35"/>
+      <c r="S131" s="35"/>
+      <c r="T131" s="35"/>
+      <c r="U131" s="35"/>
+      <c r="V131" s="35"/>
+      <c r="W131" s="35"/>
+      <c r="X131" s="35"/>
+      <c r="Y131" s="35"/>
+      <c r="Z131" s="35"/>
+      <c r="AA131" s="35"/>
+      <c r="AB131" s="35"/>
+      <c r="AC131" s="35"/>
+      <c r="AD131" s="35"/>
+      <c r="AE131" s="35"/>
+      <c r="AF131" s="35"/>
+      <c r="AG131" s="35"/>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A132" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+      <c r="N132" s="35"/>
+      <c r="O132" s="35"/>
+      <c r="P132" s="35"/>
+      <c r="Q132" s="35"/>
+      <c r="R132" s="35"/>
+      <c r="S132" s="35"/>
+      <c r="T132" s="35"/>
+      <c r="U132" s="35"/>
+      <c r="V132" s="35"/>
+      <c r="W132" s="35"/>
+      <c r="X132" s="35"/>
+      <c r="Y132" s="35"/>
+      <c r="Z132" s="35"/>
+      <c r="AA132" s="35"/>
+      <c r="AB132" s="35"/>
+      <c r="AC132" s="35"/>
+      <c r="AD132" s="35"/>
+      <c r="AE132" s="35"/>
+      <c r="AF132" s="35"/>
+      <c r="AG132" s="35"/>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A133" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" s="12"/>
+      <c r="G133" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+      <c r="Q133" s="35"/>
+      <c r="R133" s="35"/>
+      <c r="S133" s="35"/>
+      <c r="T133" s="35"/>
+      <c r="U133" s="35"/>
+      <c r="V133" s="35"/>
+      <c r="W133" s="35"/>
+      <c r="X133" s="35"/>
+      <c r="Y133" s="35"/>
+      <c r="Z133" s="35"/>
+      <c r="AA133" s="35"/>
+      <c r="AB133" s="35"/>
+      <c r="AC133" s="35"/>
+      <c r="AD133" s="35"/>
+      <c r="AE133" s="35"/>
+      <c r="AF133" s="35"/>
+      <c r="AG133" s="35"/>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+      <c r="N134" s="35"/>
+      <c r="O134" s="35"/>
+      <c r="P134" s="35"/>
+      <c r="Q134" s="35"/>
+      <c r="R134" s="35"/>
+      <c r="S134" s="35"/>
+      <c r="T134" s="35"/>
+      <c r="U134" s="35"/>
+      <c r="V134" s="35"/>
+      <c r="W134" s="35"/>
+      <c r="X134" s="35"/>
+      <c r="Y134" s="35"/>
+      <c r="Z134" s="35"/>
+      <c r="AA134" s="35"/>
+      <c r="AB134" s="35"/>
+      <c r="AC134" s="35"/>
+      <c r="AD134" s="35"/>
+      <c r="AE134" s="35"/>
+      <c r="AF134" s="35"/>
+      <c r="AG134" s="35"/>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A135" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+      <c r="N135" s="35"/>
+      <c r="O135" s="35"/>
+      <c r="P135" s="35"/>
+      <c r="Q135" s="35"/>
+      <c r="R135" s="35"/>
+      <c r="S135" s="35"/>
+      <c r="T135" s="35"/>
+      <c r="U135" s="35"/>
+      <c r="V135" s="35"/>
+      <c r="W135" s="35"/>
+      <c r="X135" s="35"/>
+      <c r="Y135" s="35"/>
+      <c r="Z135" s="35"/>
+      <c r="AA135" s="35"/>
+      <c r="AB135" s="35"/>
+      <c r="AC135" s="35"/>
+      <c r="AD135" s="35"/>
+      <c r="AE135" s="35"/>
+      <c r="AF135" s="35"/>
+      <c r="AG135" s="35"/>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+      <c r="N136" s="35"/>
+      <c r="O136" s="35"/>
+      <c r="P136" s="35"/>
+      <c r="Q136" s="35"/>
+      <c r="R136" s="35"/>
+      <c r="S136" s="35"/>
+      <c r="T136" s="35"/>
+      <c r="U136" s="35"/>
+      <c r="V136" s="35"/>
+      <c r="W136" s="35"/>
+      <c r="X136" s="35"/>
+      <c r="Y136" s="35"/>
+      <c r="Z136" s="35"/>
+      <c r="AA136" s="35"/>
+      <c r="AB136" s="35"/>
+      <c r="AC136" s="35"/>
+      <c r="AD136" s="35"/>
+      <c r="AE136" s="35"/>
+      <c r="AF136" s="35"/>
+      <c r="AG136" s="35"/>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A137" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="35"/>
+      <c r="Q137" s="35"/>
+      <c r="R137" s="35"/>
+      <c r="S137" s="35"/>
+      <c r="T137" s="35"/>
+      <c r="U137" s="35"/>
+      <c r="V137" s="35"/>
+      <c r="W137" s="35"/>
+      <c r="X137" s="35"/>
+      <c r="Y137" s="35"/>
+      <c r="Z137" s="35"/>
+      <c r="AA137" s="35"/>
+      <c r="AB137" s="35"/>
+      <c r="AC137" s="35"/>
+      <c r="AD137" s="35"/>
+      <c r="AE137" s="35"/>
+      <c r="AF137" s="35"/>
+      <c r="AG137" s="35"/>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A138" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35"/>
+      <c r="O138" s="35"/>
+      <c r="P138" s="35"/>
+      <c r="Q138" s="35"/>
+      <c r="R138" s="35"/>
+      <c r="S138" s="35"/>
+      <c r="T138" s="35"/>
+      <c r="U138" s="35"/>
+      <c r="V138" s="35"/>
+      <c r="W138" s="35"/>
+      <c r="X138" s="35"/>
+      <c r="Y138" s="35"/>
+      <c r="Z138" s="35"/>
+      <c r="AA138" s="35"/>
+      <c r="AB138" s="35"/>
+      <c r="AC138" s="35"/>
+      <c r="AD138" s="35"/>
+      <c r="AE138" s="35"/>
+      <c r="AF138" s="35"/>
+      <c r="AG138" s="35"/>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A139" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+      <c r="N139" s="35"/>
+      <c r="O139" s="35"/>
+      <c r="P139" s="35"/>
+      <c r="Q139" s="35"/>
+      <c r="R139" s="35"/>
+      <c r="S139" s="35"/>
+      <c r="T139" s="35"/>
+      <c r="U139" s="35"/>
+      <c r="V139" s="35"/>
+      <c r="W139" s="35"/>
+      <c r="X139" s="35"/>
+      <c r="Y139" s="35"/>
+      <c r="Z139" s="35"/>
+      <c r="AA139" s="35"/>
+      <c r="AB139" s="35"/>
+      <c r="AC139" s="35"/>
+      <c r="AD139" s="35"/>
+      <c r="AE139" s="35"/>
+      <c r="AF139" s="35"/>
+      <c r="AG139" s="35"/>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
+      <c r="N140" s="35"/>
+      <c r="O140" s="35"/>
+      <c r="P140" s="35"/>
+      <c r="Q140" s="35"/>
+      <c r="R140" s="35"/>
+      <c r="S140" s="35"/>
+      <c r="T140" s="35"/>
+      <c r="U140" s="35"/>
+      <c r="V140" s="35"/>
+      <c r="W140" s="35"/>
+      <c r="X140" s="35"/>
+      <c r="Y140" s="35"/>
+      <c r="Z140" s="35"/>
+      <c r="AA140" s="35"/>
+      <c r="AB140" s="35"/>
+      <c r="AC140" s="35"/>
+      <c r="AD140" s="35"/>
+      <c r="AE140" s="35"/>
+      <c r="AF140" s="35"/>
+      <c r="AG140" s="35"/>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
+      <c r="N141" s="35"/>
+      <c r="O141" s="35"/>
+      <c r="P141" s="35"/>
+      <c r="Q141" s="35"/>
+      <c r="R141" s="35"/>
+      <c r="S141" s="35"/>
+      <c r="T141" s="35"/>
+      <c r="U141" s="35"/>
+      <c r="V141" s="35"/>
+      <c r="W141" s="35"/>
+      <c r="X141" s="35"/>
+      <c r="Y141" s="35"/>
+      <c r="Z141" s="35"/>
+      <c r="AA141" s="35"/>
+      <c r="AB141" s="35"/>
+      <c r="AC141" s="35"/>
+      <c r="AD141" s="35"/>
+      <c r="AE141" s="35"/>
+      <c r="AF141" s="35"/>
+      <c r="AG141" s="35"/>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="35"/>
+      <c r="N142" s="35"/>
+      <c r="O142" s="35"/>
+      <c r="P142" s="35"/>
+      <c r="Q142" s="35"/>
+      <c r="R142" s="35"/>
+      <c r="S142" s="35"/>
+      <c r="T142" s="35"/>
+      <c r="U142" s="35"/>
+      <c r="V142" s="35"/>
+      <c r="W142" s="35"/>
+      <c r="X142" s="35"/>
+      <c r="Y142" s="35"/>
+      <c r="Z142" s="35"/>
+      <c r="AA142" s="35"/>
+      <c r="AB142" s="35"/>
+      <c r="AC142" s="35"/>
+      <c r="AD142" s="35"/>
+      <c r="AE142" s="35"/>
+      <c r="AF142" s="35"/>
+      <c r="AG142" s="35"/>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A143" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
+      <c r="N143" s="35"/>
+      <c r="O143" s="35"/>
+      <c r="P143" s="35"/>
+      <c r="Q143" s="35"/>
+      <c r="R143" s="35"/>
+      <c r="S143" s="35"/>
+      <c r="T143" s="35"/>
+      <c r="U143" s="35"/>
+      <c r="V143" s="35"/>
+      <c r="W143" s="35"/>
+      <c r="X143" s="35"/>
+      <c r="Y143" s="35"/>
+      <c r="Z143" s="35"/>
+      <c r="AA143" s="35"/>
+      <c r="AB143" s="35"/>
+      <c r="AC143" s="35"/>
+      <c r="AD143" s="35"/>
+      <c r="AE143" s="35"/>
+      <c r="AF143" s="35"/>
+      <c r="AG143" s="35"/>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="35"/>
+      <c r="N144" s="35"/>
+      <c r="O144" s="35"/>
+      <c r="P144" s="35"/>
+      <c r="Q144" s="35"/>
+      <c r="R144" s="35"/>
+      <c r="S144" s="35"/>
+      <c r="T144" s="35"/>
+      <c r="U144" s="35"/>
+      <c r="V144" s="35"/>
+      <c r="W144" s="35"/>
+      <c r="X144" s="35"/>
+      <c r="Y144" s="35"/>
+      <c r="Z144" s="35"/>
+      <c r="AA144" s="35"/>
+      <c r="AB144" s="35"/>
+      <c r="AC144" s="35"/>
+      <c r="AD144" s="35"/>
+      <c r="AE144" s="35"/>
+      <c r="AF144" s="35"/>
+      <c r="AG144" s="35"/>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A145" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="35"/>
+      <c r="M145" s="35"/>
+      <c r="N145" s="35"/>
+      <c r="O145" s="35"/>
+      <c r="P145" s="35"/>
+      <c r="Q145" s="35"/>
+      <c r="R145" s="35"/>
+      <c r="S145" s="35"/>
+      <c r="T145" s="35"/>
+      <c r="U145" s="35"/>
+      <c r="V145" s="35"/>
+      <c r="W145" s="35"/>
+      <c r="X145" s="35"/>
+      <c r="Y145" s="35"/>
+      <c r="Z145" s="35"/>
+      <c r="AA145" s="35"/>
+      <c r="AB145" s="35"/>
+      <c r="AC145" s="35"/>
+      <c r="AD145" s="35"/>
+      <c r="AE145" s="35"/>
+      <c r="AF145" s="35"/>
+      <c r="AG145" s="35"/>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A146" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
+      <c r="M146" s="35"/>
+      <c r="N146" s="35"/>
+      <c r="O146" s="35"/>
+      <c r="P146" s="35"/>
+      <c r="Q146" s="35"/>
+      <c r="R146" s="35"/>
+      <c r="S146" s="35"/>
+      <c r="T146" s="35"/>
+      <c r="U146" s="35"/>
+      <c r="V146" s="35"/>
+      <c r="W146" s="35"/>
+      <c r="X146" s="35"/>
+      <c r="Y146" s="35"/>
+      <c r="Z146" s="35"/>
+      <c r="AA146" s="35"/>
+      <c r="AB146" s="35"/>
+      <c r="AC146" s="35"/>
+      <c r="AD146" s="35"/>
+      <c r="AE146" s="35"/>
+      <c r="AF146" s="35"/>
+      <c r="AG146" s="35"/>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A147" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
+      <c r="M147" s="35"/>
+      <c r="N147" s="35"/>
+      <c r="O147" s="35"/>
+      <c r="P147" s="35"/>
+      <c r="Q147" s="35"/>
+      <c r="R147" s="35"/>
+      <c r="S147" s="35"/>
+      <c r="T147" s="35"/>
+      <c r="U147" s="35"/>
+      <c r="V147" s="35"/>
+      <c r="W147" s="35"/>
+      <c r="X147" s="35"/>
+      <c r="Y147" s="35"/>
+      <c r="Z147" s="35"/>
+      <c r="AA147" s="35"/>
+      <c r="AB147" s="35"/>
+      <c r="AC147" s="35"/>
+      <c r="AD147" s="35"/>
+      <c r="AE147" s="35"/>
+      <c r="AF147" s="35"/>
+      <c r="AG147" s="35"/>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A148" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" s="63"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="63"/>
+      <c r="G148" s="64"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="35"/>
+      <c r="M148" s="35"/>
+      <c r="N148" s="35"/>
+      <c r="O148" s="35"/>
+      <c r="P148" s="35"/>
+      <c r="Q148" s="35"/>
+      <c r="R148" s="35"/>
+      <c r="S148" s="35"/>
+      <c r="T148" s="35"/>
+      <c r="U148" s="35"/>
+      <c r="V148" s="35"/>
+      <c r="W148" s="35"/>
+      <c r="X148" s="35"/>
+      <c r="Y148" s="35"/>
+      <c r="Z148" s="35"/>
+      <c r="AA148" s="35"/>
+      <c r="AB148" s="35"/>
+      <c r="AC148" s="35"/>
+      <c r="AD148" s="35"/>
+      <c r="AE148" s="35"/>
+      <c r="AF148" s="35"/>
+      <c r="AG148" s="35"/>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A149" s="42"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="35"/>
+      <c r="M149" s="35"/>
+      <c r="N149" s="35"/>
+      <c r="O149" s="35"/>
+      <c r="P149" s="35"/>
+      <c r="Q149" s="35"/>
+      <c r="R149" s="35"/>
+      <c r="S149" s="35"/>
+      <c r="T149" s="35"/>
+      <c r="U149" s="35"/>
+      <c r="V149" s="35"/>
+      <c r="W149" s="35"/>
+      <c r="X149" s="35"/>
+      <c r="Y149" s="35"/>
+      <c r="Z149" s="35"/>
+      <c r="AA149" s="35"/>
+      <c r="AB149" s="35"/>
+      <c r="AC149" s="35"/>
+      <c r="AD149" s="35"/>
+      <c r="AE149" s="35"/>
+      <c r="AF149" s="35"/>
+      <c r="AG149" s="35"/>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A150" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
+      <c r="J150" s="35"/>
+      <c r="K150" s="35"/>
+      <c r="L150" s="35"/>
+      <c r="M150" s="35"/>
+      <c r="N150" s="35"/>
+      <c r="O150" s="35"/>
+      <c r="P150" s="35"/>
+      <c r="Q150" s="35"/>
+      <c r="R150" s="35"/>
+      <c r="S150" s="35"/>
+      <c r="T150" s="35"/>
+      <c r="U150" s="35"/>
+      <c r="V150" s="35"/>
+      <c r="W150" s="35"/>
+      <c r="X150" s="35"/>
+      <c r="Y150" s="35"/>
+      <c r="Z150" s="35"/>
+      <c r="AA150" s="35"/>
+      <c r="AB150" s="35"/>
+      <c r="AC150" s="35"/>
+      <c r="AD150" s="35"/>
+      <c r="AE150" s="35"/>
+      <c r="AF150" s="35"/>
+      <c r="AG150" s="35"/>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A151" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="35"/>
+      <c r="M151" s="35"/>
+      <c r="N151" s="35"/>
+      <c r="O151" s="35"/>
+      <c r="P151" s="35"/>
+      <c r="Q151" s="35"/>
+      <c r="R151" s="35"/>
+      <c r="S151" s="35"/>
+      <c r="T151" s="35"/>
+      <c r="U151" s="35"/>
+      <c r="V151" s="35"/>
+      <c r="W151" s="35"/>
+      <c r="X151" s="35"/>
+      <c r="Y151" s="35"/>
+      <c r="Z151" s="35"/>
+      <c r="AA151" s="35"/>
+      <c r="AB151" s="35"/>
+      <c r="AC151" s="35"/>
+      <c r="AD151" s="35"/>
+      <c r="AE151" s="35"/>
+      <c r="AF151" s="35"/>
+      <c r="AG151" s="35"/>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A152" s="35"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="35"/>
+      <c r="L152" s="35"/>
+      <c r="M152" s="35"/>
+      <c r="N152" s="35"/>
+      <c r="O152" s="35"/>
+      <c r="P152" s="35"/>
+      <c r="Q152" s="35"/>
+      <c r="R152" s="35"/>
+      <c r="S152" s="35"/>
+      <c r="T152" s="35"/>
+      <c r="U152" s="35"/>
+      <c r="V152" s="35"/>
+      <c r="W152" s="35"/>
+      <c r="X152" s="35"/>
+      <c r="Y152" s="35"/>
+      <c r="Z152" s="35"/>
+      <c r="AA152" s="35"/>
+      <c r="AB152" s="35"/>
+      <c r="AC152" s="35"/>
+      <c r="AD152" s="35"/>
+      <c r="AE152" s="35"/>
+      <c r="AF152" s="35"/>
+      <c r="AG152" s="35"/>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A153" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
+      <c r="L153" s="35"/>
+      <c r="M153" s="35"/>
+      <c r="N153" s="35"/>
+      <c r="O153" s="35"/>
+      <c r="P153" s="35"/>
+      <c r="Q153" s="35"/>
+      <c r="R153" s="35"/>
+      <c r="S153" s="35"/>
+      <c r="T153" s="35"/>
+      <c r="U153" s="35"/>
+      <c r="V153" s="35"/>
+      <c r="W153" s="35"/>
+      <c r="X153" s="35"/>
+      <c r="Y153" s="35"/>
+      <c r="Z153" s="35"/>
+      <c r="AA153" s="35"/>
+      <c r="AB153" s="35"/>
+      <c r="AC153" s="35"/>
+      <c r="AD153" s="35"/>
+      <c r="AE153" s="35"/>
+      <c r="AF153" s="35"/>
+      <c r="AG153" s="35"/>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A154" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="35"/>
+      <c r="L154" s="35"/>
+      <c r="M154" s="35"/>
+      <c r="N154" s="35"/>
+      <c r="O154" s="35"/>
+      <c r="P154" s="35"/>
+      <c r="Q154" s="35"/>
+      <c r="R154" s="35"/>
+      <c r="S154" s="35"/>
+      <c r="T154" s="35"/>
+      <c r="U154" s="35"/>
+      <c r="V154" s="35"/>
+      <c r="W154" s="35"/>
+      <c r="X154" s="35"/>
+      <c r="Y154" s="35"/>
+      <c r="Z154" s="35"/>
+      <c r="AA154" s="35"/>
+      <c r="AB154" s="35"/>
+      <c r="AC154" s="35"/>
+      <c r="AD154" s="35"/>
+      <c r="AE154" s="35"/>
+      <c r="AF154" s="35"/>
+      <c r="AG154" s="35"/>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A155" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B155" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C155" s="63"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="35"/>
+      <c r="K155" s="35"/>
+      <c r="L155" s="35"/>
+      <c r="M155" s="35"/>
+      <c r="N155" s="35"/>
+      <c r="O155" s="35"/>
+      <c r="P155" s="35"/>
+      <c r="Q155" s="35"/>
+      <c r="R155" s="35"/>
+      <c r="S155" s="35"/>
+      <c r="T155" s="35"/>
+      <c r="U155" s="35"/>
+      <c r="V155" s="35"/>
+      <c r="W155" s="35"/>
+      <c r="X155" s="35"/>
+      <c r="Y155" s="35"/>
+      <c r="Z155" s="35"/>
+      <c r="AA155" s="35"/>
+      <c r="AB155" s="35"/>
+      <c r="AC155" s="35"/>
+      <c r="AD155" s="35"/>
+      <c r="AE155" s="35"/>
+      <c r="AF155" s="35"/>
+      <c r="AG155" s="35"/>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A156" s="43"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="65"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
+      <c r="M156" s="35"/>
+      <c r="N156" s="35"/>
+      <c r="O156" s="35"/>
+      <c r="P156" s="35"/>
+      <c r="Q156" s="35"/>
+      <c r="R156" s="35"/>
+      <c r="S156" s="35"/>
+      <c r="T156" s="35"/>
+      <c r="U156" s="35"/>
+      <c r="V156" s="35"/>
+      <c r="W156" s="35"/>
+      <c r="X156" s="35"/>
+      <c r="Y156" s="35"/>
+      <c r="Z156" s="35"/>
+      <c r="AA156" s="35"/>
+      <c r="AB156" s="35"/>
+      <c r="AC156" s="35"/>
+      <c r="AD156" s="35"/>
+      <c r="AE156" s="35"/>
+      <c r="AF156" s="35"/>
+      <c r="AG156" s="35"/>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="35"/>
+      <c r="K157" s="35"/>
+      <c r="L157" s="35"/>
+      <c r="M157" s="35"/>
+      <c r="N157" s="35"/>
+      <c r="O157" s="35"/>
+      <c r="P157" s="35"/>
+      <c r="Q157" s="35"/>
+      <c r="R157" s="35"/>
+      <c r="S157" s="35"/>
+      <c r="T157" s="35"/>
+      <c r="U157" s="35"/>
+      <c r="V157" s="35"/>
+      <c r="W157" s="35"/>
+      <c r="X157" s="35"/>
+      <c r="Y157" s="35"/>
+      <c r="Z157" s="35"/>
+      <c r="AA157" s="35"/>
+      <c r="AB157" s="35"/>
+      <c r="AC157" s="35"/>
+      <c r="AD157" s="35"/>
+      <c r="AE157" s="35"/>
+      <c r="AF157" s="35"/>
+      <c r="AG157" s="35"/>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A158" s="35"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35"/>
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
+      <c r="M158" s="35"/>
+      <c r="N158" s="35"/>
+      <c r="O158" s="35"/>
+      <c r="P158" s="35"/>
+      <c r="Q158" s="35"/>
+      <c r="R158" s="35"/>
+      <c r="S158" s="35"/>
+      <c r="T158" s="35"/>
+      <c r="U158" s="35"/>
+      <c r="V158" s="35"/>
+      <c r="W158" s="35"/>
+      <c r="X158" s="35"/>
+      <c r="Y158" s="35"/>
+      <c r="Z158" s="35"/>
+      <c r="AA158" s="35"/>
+      <c r="AB158" s="35"/>
+      <c r="AC158" s="35"/>
+      <c r="AD158" s="35"/>
+      <c r="AE158" s="35"/>
+      <c r="AF158" s="35"/>
+      <c r="AG158" s="35"/>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="35"/>
+      <c r="J159" s="35"/>
+      <c r="K159" s="35"/>
+      <c r="L159" s="35"/>
+      <c r="M159" s="35"/>
+      <c r="N159" s="35"/>
+      <c r="O159" s="35"/>
+      <c r="P159" s="35"/>
+      <c r="Q159" s="35"/>
+      <c r="R159" s="35"/>
+      <c r="S159" s="35"/>
+      <c r="T159" s="35"/>
+      <c r="U159" s="35"/>
+      <c r="V159" s="35"/>
+      <c r="W159" s="35"/>
+      <c r="X159" s="35"/>
+      <c r="Y159" s="35"/>
+      <c r="Z159" s="35"/>
+      <c r="AA159" s="35"/>
+      <c r="AB159" s="35"/>
+      <c r="AC159" s="35"/>
+      <c r="AD159" s="35"/>
+      <c r="AE159" s="35"/>
+      <c r="AF159" s="35"/>
+      <c r="AG159" s="35"/>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="35"/>
+      <c r="K160" s="35"/>
+      <c r="L160" s="35"/>
+      <c r="M160" s="35"/>
+      <c r="N160" s="35"/>
+      <c r="O160" s="35"/>
+      <c r="P160" s="35"/>
+      <c r="Q160" s="35"/>
+      <c r="R160" s="35"/>
+      <c r="S160" s="35"/>
+      <c r="T160" s="35"/>
+      <c r="U160" s="35"/>
+      <c r="V160" s="35"/>
+      <c r="W160" s="35"/>
+      <c r="X160" s="35"/>
+      <c r="Y160" s="35"/>
+      <c r="Z160" s="35"/>
+      <c r="AA160" s="35"/>
+      <c r="AB160" s="35"/>
+      <c r="AC160" s="35"/>
+      <c r="AD160" s="35"/>
+      <c r="AE160" s="35"/>
+      <c r="AF160" s="35"/>
+      <c r="AG160" s="35"/>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
+      <c r="J161" s="35"/>
+      <c r="K161" s="35"/>
+      <c r="L161" s="35"/>
+      <c r="M161" s="35"/>
+      <c r="N161" s="35"/>
+      <c r="O161" s="35"/>
+      <c r="P161" s="35"/>
+      <c r="Q161" s="35"/>
+      <c r="R161" s="35"/>
+      <c r="S161" s="35"/>
+      <c r="T161" s="35"/>
+      <c r="U161" s="35"/>
+      <c r="V161" s="35"/>
+      <c r="W161" s="35"/>
+      <c r="X161" s="35"/>
+      <c r="Y161" s="35"/>
+      <c r="Z161" s="35"/>
+      <c r="AA161" s="35"/>
+      <c r="AB161" s="35"/>
+      <c r="AC161" s="35"/>
+      <c r="AD161" s="35"/>
+      <c r="AE161" s="35"/>
+      <c r="AF161" s="35"/>
+      <c r="AG161" s="35"/>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="35"/>
+      <c r="K162" s="35"/>
+      <c r="L162" s="35"/>
+      <c r="M162" s="35"/>
+      <c r="N162" s="35"/>
+      <c r="O162" s="35"/>
+      <c r="P162" s="35"/>
+      <c r="Q162" s="35"/>
+      <c r="R162" s="35"/>
+      <c r="S162" s="35"/>
+      <c r="T162" s="35"/>
+      <c r="U162" s="35"/>
+      <c r="V162" s="35"/>
+      <c r="W162" s="35"/>
+      <c r="X162" s="35"/>
+      <c r="Y162" s="35"/>
+      <c r="Z162" s="35"/>
+      <c r="AA162" s="35"/>
+      <c r="AB162" s="35"/>
+      <c r="AC162" s="35"/>
+      <c r="AD162" s="35"/>
+      <c r="AE162" s="35"/>
+      <c r="AF162" s="35"/>
+      <c r="AG162" s="35"/>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A163" s="35"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="35"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
+      <c r="J163" s="35"/>
+      <c r="K163" s="35"/>
+      <c r="L163" s="35"/>
+      <c r="M163" s="35"/>
+      <c r="N163" s="35"/>
+      <c r="O163" s="35"/>
+      <c r="P163" s="35"/>
+      <c r="Q163" s="35"/>
+      <c r="R163" s="35"/>
+      <c r="S163" s="35"/>
+      <c r="T163" s="35"/>
+      <c r="U163" s="35"/>
+      <c r="V163" s="35"/>
+      <c r="W163" s="35"/>
+      <c r="X163" s="35"/>
+      <c r="Y163" s="35"/>
+      <c r="Z163" s="35"/>
+      <c r="AA163" s="35"/>
+      <c r="AB163" s="35"/>
+      <c r="AC163" s="35"/>
+      <c r="AD163" s="35"/>
+      <c r="AE163" s="35"/>
+      <c r="AF163" s="35"/>
+      <c r="AG163" s="35"/>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A164" s="35"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="35"/>
+      <c r="J164" s="35"/>
+      <c r="K164" s="35"/>
+      <c r="L164" s="35"/>
+      <c r="M164" s="35"/>
+      <c r="N164" s="35"/>
+      <c r="O164" s="35"/>
+      <c r="P164" s="35"/>
+      <c r="Q164" s="35"/>
+      <c r="R164" s="35"/>
+      <c r="S164" s="35"/>
+      <c r="T164" s="35"/>
+      <c r="U164" s="35"/>
+      <c r="V164" s="35"/>
+      <c r="W164" s="35"/>
+      <c r="X164" s="35"/>
+      <c r="Y164" s="35"/>
+      <c r="Z164" s="35"/>
+      <c r="AA164" s="35"/>
+      <c r="AB164" s="35"/>
+      <c r="AC164" s="35"/>
+      <c r="AD164" s="35"/>
+      <c r="AE164" s="35"/>
+      <c r="AF164" s="35"/>
+      <c r="AG164" s="35"/>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A165" s="35"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="35"/>
+      <c r="K165" s="35"/>
+      <c r="L165" s="35"/>
+      <c r="M165" s="35"/>
+      <c r="N165" s="35"/>
+      <c r="O165" s="35"/>
+      <c r="P165" s="35"/>
+      <c r="Q165" s="35"/>
+      <c r="R165" s="35"/>
+      <c r="S165" s="35"/>
+      <c r="T165" s="35"/>
+      <c r="U165" s="35"/>
+      <c r="V165" s="35"/>
+      <c r="W165" s="35"/>
+      <c r="X165" s="35"/>
+      <c r="Y165" s="35"/>
+      <c r="Z165" s="35"/>
+      <c r="AA165" s="35"/>
+      <c r="AB165" s="35"/>
+      <c r="AC165" s="35"/>
+      <c r="AD165" s="35"/>
+      <c r="AE165" s="35"/>
+      <c r="AF165" s="35"/>
+      <c r="AG165" s="35"/>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A166" s="35"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="35"/>
+      <c r="L166" s="35"/>
+      <c r="M166" s="35"/>
+      <c r="N166" s="35"/>
+      <c r="O166" s="35"/>
+      <c r="P166" s="35"/>
+      <c r="Q166" s="35"/>
+      <c r="R166" s="35"/>
+      <c r="S166" s="35"/>
+      <c r="T166" s="35"/>
+      <c r="U166" s="35"/>
+      <c r="V166" s="35"/>
+      <c r="W166" s="35"/>
+      <c r="X166" s="35"/>
+      <c r="Y166" s="35"/>
+      <c r="Z166" s="35"/>
+      <c r="AA166" s="35"/>
+      <c r="AB166" s="35"/>
+      <c r="AC166" s="35"/>
+      <c r="AD166" s="35"/>
+      <c r="AE166" s="35"/>
+      <c r="AF166" s="35"/>
+      <c r="AG166" s="35"/>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A167" s="35"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
+      <c r="L167" s="35"/>
+      <c r="M167" s="35"/>
+      <c r="N167" s="35"/>
+      <c r="O167" s="35"/>
+      <c r="P167" s="35"/>
+      <c r="Q167" s="35"/>
+      <c r="R167" s="35"/>
+      <c r="S167" s="35"/>
+      <c r="T167" s="35"/>
+      <c r="U167" s="35"/>
+      <c r="V167" s="35"/>
+      <c r="W167" s="35"/>
+      <c r="X167" s="35"/>
+      <c r="Y167" s="35"/>
+      <c r="Z167" s="35"/>
+      <c r="AA167" s="35"/>
+      <c r="AB167" s="35"/>
+      <c r="AC167" s="35"/>
+      <c r="AD167" s="35"/>
+      <c r="AE167" s="35"/>
+      <c r="AF167" s="35"/>
+      <c r="AG167" s="35"/>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
+      <c r="L168" s="35"/>
+      <c r="M168" s="35"/>
+      <c r="N168" s="35"/>
+      <c r="O168" s="35"/>
+      <c r="P168" s="35"/>
+      <c r="Q168" s="35"/>
+      <c r="R168" s="35"/>
+      <c r="S168" s="35"/>
+      <c r="T168" s="35"/>
+      <c r="U168" s="35"/>
+      <c r="V168" s="35"/>
+      <c r="W168" s="35"/>
+      <c r="X168" s="35"/>
+      <c r="Y168" s="35"/>
+      <c r="Z168" s="35"/>
+      <c r="AA168" s="35"/>
+      <c r="AB168" s="35"/>
+      <c r="AC168" s="35"/>
+      <c r="AD168" s="35"/>
+      <c r="AE168" s="35"/>
+      <c r="AF168" s="35"/>
+      <c r="AG168" s="35"/>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A169" s="35"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="35"/>
+      <c r="J169" s="35"/>
+      <c r="K169" s="35"/>
+      <c r="L169" s="35"/>
+      <c r="M169" s="35"/>
+      <c r="N169" s="35"/>
+      <c r="O169" s="35"/>
+      <c r="P169" s="35"/>
+      <c r="Q169" s="35"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="35"/>
+      <c r="T169" s="35"/>
+      <c r="U169" s="35"/>
+      <c r="V169" s="35"/>
+      <c r="W169" s="35"/>
+      <c r="X169" s="35"/>
+      <c r="Y169" s="35"/>
+      <c r="Z169" s="35"/>
+      <c r="AA169" s="35"/>
+      <c r="AB169" s="35"/>
+      <c r="AC169" s="35"/>
+      <c r="AD169" s="35"/>
+      <c r="AE169" s="35"/>
+      <c r="AF169" s="35"/>
+      <c r="AG169" s="35"/>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I173" s="46"/>
+      <c r="J173" s="46"/>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I174" s="46"/>
+      <c r="J174" s="46"/>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I175" s="46"/>
+      <c r="J175" s="46"/>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I176" s="46"/>
+      <c r="J176" s="46"/>
+      <c r="K176" s="46"/>
+      <c r="L176" s="46"/>
+      <c r="M176" s="46"/>
+      <c r="N176" s="46"/>
+    </row>
+    <row r="177" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I177" s="46"/>
+      <c r="J177" s="46"/>
+      <c r="K177" s="46"/>
+      <c r="L177" s="46"/>
+      <c r="M177" s="46"/>
+      <c r="N177" s="46"/>
+    </row>
+    <row r="178" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I178" s="46"/>
+      <c r="J178" s="46"/>
+      <c r="K178" s="46"/>
+      <c r="L178" s="46"/>
+      <c r="M178" s="46"/>
+      <c r="N178" s="46"/>
+    </row>
+    <row r="179" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K179" s="46"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="46"/>
+    </row>
+    <row r="180" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I180" s="46"/>
+      <c r="J180" s="46"/>
+      <c r="K180" s="46"/>
+      <c r="L180" s="46"/>
+      <c r="M180" s="46"/>
+      <c r="N180" s="46"/>
+    </row>
+    <row r="181" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I181" s="46"/>
+      <c r="J181" s="46"/>
+      <c r="K181" s="46"/>
+      <c r="L181" s="46"/>
+      <c r="M181" s="46"/>
+      <c r="N181" s="46"/>
+    </row>
+    <row r="182" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I182" s="46"/>
+      <c r="J182" s="46"/>
+      <c r="K182" s="46"/>
+      <c r="L182" s="46"/>
+      <c r="M182" s="46"/>
+      <c r="N182" s="46"/>
+    </row>
+    <row r="183" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I183" s="46"/>
+      <c r="J183" s="46"/>
+      <c r="K183" s="46"/>
+      <c r="L183" s="46"/>
+      <c r="M183" s="46"/>
+      <c r="N183" s="46"/>
+    </row>
+    <row r="184" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I184" s="46"/>
+      <c r="J184" s="46"/>
+      <c r="K184" s="46"/>
+      <c r="L184" s="46"/>
+      <c r="M184" s="46"/>
+      <c r="N184" s="46"/>
+    </row>
+    <row r="185" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J185" s="46"/>
+      <c r="K185" s="46"/>
+      <c r="L185" s="46"/>
+      <c r="M185" s="46"/>
+      <c r="N185" s="46"/>
+    </row>
+    <row r="186" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J186" s="46"/>
+      <c r="K186" s="46"/>
+      <c r="L186" s="46"/>
+      <c r="M186" s="46"/>
+      <c r="N186" s="46"/>
+    </row>
+    <row r="187" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J187" s="46"/>
+      <c r="K187" s="46"/>
+      <c r="L187" s="46"/>
+      <c r="M187" s="46"/>
+      <c r="N187" s="46"/>
+    </row>
+    <row r="188" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J188" s="46"/>
+      <c r="K188" s="46"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+    </row>
+    <row r="189" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J189" s="46"/>
+      <c r="K189" s="46"/>
+      <c r="L189" s="46"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="46"/>
+    </row>
+    <row r="190" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J190" s="46"/>
+      <c r="K190" s="46"/>
+      <c r="L190" s="46"/>
+      <c r="M190" s="46"/>
+      <c r="N190" s="46"/>
+    </row>
+    <row r="191" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J191" s="46"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+    </row>
+    <row r="192" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J192" s="46"/>
+      <c r="K192" s="46"/>
+      <c r="L192" s="46"/>
+      <c r="M192" s="46"/>
+      <c r="N192" s="46"/>
+    </row>
+    <row r="193" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J193" s="46"/>
+      <c r="K193" s="46"/>
+      <c r="L193" s="46"/>
+      <c r="M193" s="46"/>
+      <c r="N193" s="46"/>
+    </row>
+    <row r="194" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L194" s="46"/>
+      <c r="M194" s="46"/>
+      <c r="N194" s="46"/>
+    </row>
+    <row r="195" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L195" s="46"/>
+      <c r="M195" s="46"/>
+      <c r="N195" s="46"/>
+    </row>
+    <row r="196" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L196" s="46"/>
+      <c r="M196" s="46"/>
+      <c r="N196" s="46"/>
+    </row>
+    <row r="197" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L197" s="46"/>
+      <c r="M197" s="46"/>
+      <c r="N197" s="46"/>
+    </row>
+    <row r="198" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L198" s="46"/>
+      <c r="M198" s="46"/>
+      <c r="N198" s="46"/>
+    </row>
+    <row r="199" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L199" s="46"/>
+      <c r="M199" s="46"/>
+      <c r="N199" s="46"/>
+    </row>
+    <row r="200" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L200" s="46"/>
+      <c r="M200" s="46"/>
+      <c r="N200" s="46"/>
+    </row>
+    <row r="201" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L201" s="46"/>
+      <c r="M201" s="46"/>
+      <c r="N201" s="46"/>
+    </row>
+    <row r="202" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L202" s="46"/>
+      <c r="M202" s="46"/>
+      <c r="N202" s="46"/>
+    </row>
+    <row r="203" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L203" s="46"/>
+      <c r="M203" s="46"/>
+      <c r="N203" s="46"/>
+    </row>
+    <row r="204" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L204" s="46"/>
+      <c r="M204" s="46"/>
+      <c r="N204" s="46"/>
+    </row>
+    <row r="205" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="L205" s="46"/>
+      <c r="M205" s="46"/>
+      <c r="N205" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="B83:G84"/>
-    <mergeCell ref="B90:G91"/>
-    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="B148:G149"/>
+    <mergeCell ref="B155:G156"/>
+    <mergeCell ref="B71:G72"/>
+    <mergeCell ref="A66:G66"/>
     <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
